--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\repositories\github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE87E7D-DA0E-4873-9F0E-F5CD5DDEC89E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFCA7E1-14DE-41B2-B220-275A4CD6E2B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -758,6 +758,9 @@
   <si>
     <t>*Dashboard</t>
   </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
 </sst>
 </file>
 
@@ -1113,6 +1116,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,10 +1135,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,8 +1677,8 @@
   <dimension ref="A1:XFD86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BC7" sqref="BC7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CU84" sqref="CU84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,104 +1715,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="65" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66" t="s">
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="65" t="s">
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="65" t="s">
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="66"/>
-      <c r="BS1" s="66"/>
-      <c r="BT1" s="66"/>
-      <c r="BU1" s="66"/>
-      <c r="BV1" s="66"/>
-      <c r="BW1" s="66"/>
-      <c r="BX1" s="66"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="66"/>
-      <c r="CA1" s="66"/>
-      <c r="CB1" s="66"/>
-      <c r="CC1" s="66"/>
-      <c r="CD1" s="66"/>
-      <c r="CE1" s="66"/>
-      <c r="CF1" s="66"/>
-      <c r="CG1" s="66"/>
-      <c r="CH1" s="66"/>
-      <c r="CI1" s="66"/>
-      <c r="CJ1" s="66"/>
-      <c r="CK1" s="67"/>
+      <c r="BR1" s="68"/>
+      <c r="BS1" s="68"/>
+      <c r="BT1" s="68"/>
+      <c r="BU1" s="68"/>
+      <c r="BV1" s="68"/>
+      <c r="BW1" s="68"/>
+      <c r="BX1" s="68"/>
+      <c r="BY1" s="68"/>
+      <c r="BZ1" s="68"/>
+      <c r="CA1" s="68"/>
+      <c r="CB1" s="68"/>
+      <c r="CC1" s="68"/>
+      <c r="CD1" s="68"/>
+      <c r="CE1" s="68"/>
+      <c r="CF1" s="68"/>
+      <c r="CG1" s="68"/>
+      <c r="CH1" s="68"/>
+      <c r="CI1" s="68"/>
+      <c r="CJ1" s="68"/>
+      <c r="CK1" s="69"/>
       <c r="CL1" s="29"/>
       <c r="CM1" s="31"/>
       <c r="CN1" s="31"/>
@@ -1964,7 +1967,7 @@
       <c r="AS2" s="18">
         <v>43181</v>
       </c>
-      <c r="AT2" s="71">
+      <c r="AT2" s="66">
         <v>43184</v>
       </c>
       <c r="AU2" s="51">
@@ -2663,7 +2666,9 @@
       <c r="AF27" s="24"/>
       <c r="AG27" s="24"/>
       <c r="AO27" s="26"/>
-      <c r="AT27" s="26"/>
+      <c r="AT27" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="BQ27" s="26"/>
       <c r="BU27" s="24"/>
       <c r="CK27" s="25"/>
@@ -2743,7 +2748,7 @@
       <c r="BR28" s="43"/>
       <c r="BS28" s="43"/>
       <c r="BT28" s="43"/>
-      <c r="BU28" s="70"/>
+      <c r="BU28" s="65"/>
       <c r="BV28" s="43"/>
       <c r="BW28" s="43"/>
       <c r="BX28" s="43"/>
@@ -20290,7 +20295,9 @@
       <c r="CY86" s="35"/>
       <c r="CZ86" s="35"/>
       <c r="DA86" s="35"/>
-      <c r="DB86" s="36"/>
+      <c r="DB86" s="36">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\repositories\github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFCA7E1-14DE-41B2-B220-275A4CD6E2B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D4306-AFE6-4797-9F40-DD996C1EF393}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1678,7 +1678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CU84" sqref="CU84"/>
+      <selection pane="topRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\repositories\github\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053D4306-AFE6-4797-9F40-DD996C1EF393}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
     <sheet name="CRONOGRAMA" sheetId="2" r:id="rId2"/>
     <sheet name="DIAS" sheetId="4" r:id="rId3"/>
     <sheet name="BLOCOS" sheetId="3" r:id="rId4"/>
+    <sheet name="VALIDAR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -761,11 +761,17 @@
   <si>
     <t xml:space="preserve">         </t>
   </si>
+  <si>
+    <t>6. Projetar interfaces para dispositivos móveis)</t>
+  </si>
+  <si>
+    <t>Capacidades</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1453,11 +1459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,12 +1679,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C28" sqref="C28"/>
+      <selection pane="topRight" activeCell="A81" sqref="A81:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20313,7 +20319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20863,11 +20869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21055,22 +21061,226 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -1462,9 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1682,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A81" sqref="A81:A83"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT53" sqref="AT53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -767,6 +767,12 @@
   <si>
     <t>Capacidades</t>
   </si>
+  <si>
+    <t>Entrevista com cliente</t>
+  </si>
+  <si>
+    <t>Ténicas de Negociação</t>
+  </si>
 </sst>
 </file>
 
@@ -1462,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1680,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT53" sqref="AT53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ43" sqref="AZ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19475,7 +19481,9 @@
       <c r="AG48" s="47"/>
       <c r="AO48" s="55"/>
       <c r="AT48" s="29"/>
-      <c r="BA48" s="23"/>
+      <c r="BA48" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="BQ48" s="29"/>
       <c r="BU48" s="47"/>
       <c r="CK48" s="49"/>
@@ -19588,6 +19596,9 @@
         <v>71</v>
       </c>
       <c r="AU53" s="53"/>
+      <c r="BA53" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="BQ53" s="29"/>
       <c r="BU53" s="47"/>
       <c r="CK53" s="49"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -1686,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ43" sqref="AZ43"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -773,6 +773,9 @@
   <si>
     <t>Ténicas de Negociação</t>
   </si>
+  <si>
+    <t>após apresentar um controller</t>
+  </si>
 </sst>
 </file>
 
@@ -1686,9 +1689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T44" sqref="T44:AA44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2527,9 @@
       <c r="B20" s="26"/>
       <c r="E20" s="24"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
+      <c r="S20" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="T20" s="40"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="24"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -1689,9 +1689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T44" sqref="T44:AA44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T41" sqref="T41:T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2607,7 @@
       <c r="E24" s="24"/>
       <c r="R24" s="26"/>
       <c r="T24" s="40"/>
-      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
       <c r="W24" s="40"/>
       <c r="X24" s="40"/>
       <c r="AA24" s="27"/>
@@ -2651,8 +2651,8 @@
       <c r="B26" s="26"/>
       <c r="E26" s="24"/>
       <c r="R26" s="26"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="40"/>
-      <c r="V26" s="27"/>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
       <c r="AE26" s="24"/>
@@ -2673,8 +2673,8 @@
       <c r="B27" s="26"/>
       <c r="E27" s="24"/>
       <c r="R27" s="26"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="40"/>
-      <c r="V27" s="27"/>
       <c r="W27" s="40"/>
       <c r="X27" s="40"/>
       <c r="AE27" s="24"/>
@@ -19083,7 +19083,7 @@
       <c r="B29" s="26"/>
       <c r="E29" s="24"/>
       <c r="R29" s="26"/>
-      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
       <c r="AG29" s="24"/>
@@ -19102,7 +19102,7 @@
       <c r="B30" s="26"/>
       <c r="E30" s="24"/>
       <c r="R30" s="26"/>
-      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
       <c r="AG30" s="24"/>
@@ -19139,7 +19139,7 @@
       <c r="B32" s="26"/>
       <c r="E32" s="24"/>
       <c r="R32" s="26"/>
-      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="24"/>
@@ -19158,7 +19158,7 @@
       <c r="B33" s="26"/>
       <c r="E33" s="24"/>
       <c r="R33" s="26"/>
-      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="24"/>
@@ -19314,7 +19314,7 @@
       <c r="B41" s="26"/>
       <c r="E41" s="24"/>
       <c r="R41" s="26"/>
-      <c r="V41" s="27"/>
+      <c r="T41" s="27"/>
       <c r="AA41" s="40"/>
       <c r="AE41" s="24"/>
       <c r="AF41" s="24"/>
@@ -19334,7 +19334,7 @@
       <c r="B42" s="26"/>
       <c r="E42" s="24"/>
       <c r="R42" s="26"/>
-      <c r="V42" s="27"/>
+      <c r="T42" s="27"/>
       <c r="AA42" s="40"/>
       <c r="AE42" s="24"/>
       <c r="AF42" s="24"/>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\senai\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1473,208 +1473,208 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
@@ -1689,45 +1689,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T41" sqref="T41:T42"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="26" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
-    <col min="6" max="16" width="6.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="26" customWidth="1"/>
-    <col min="19" max="29" width="6.5703125" style="23" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" style="23" customWidth="1"/>
-    <col min="31" max="33" width="7.42578125" style="24" customWidth="1"/>
-    <col min="34" max="40" width="7.42578125" style="23" customWidth="1"/>
-    <col min="41" max="41" width="7.42578125" style="26" customWidth="1"/>
-    <col min="42" max="45" width="7.42578125" style="23" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="26" customWidth="1"/>
-    <col min="47" max="50" width="7.42578125" style="23" customWidth="1"/>
-    <col min="51" max="53" width="6.85546875" style="23" customWidth="1"/>
-    <col min="54" max="68" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="74" max="88" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.140625" style="23" customWidth="1"/>
-    <col min="95" max="95" width="7.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="96" max="105" width="6.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="6.5546875" style="26" customWidth="1"/>
+    <col min="3" max="4" width="6.5546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" style="24" customWidth="1"/>
+    <col min="6" max="16" width="6.5546875" style="23" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" style="25" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" style="26" customWidth="1"/>
+    <col min="19" max="29" width="6.5546875" style="23" customWidth="1"/>
+    <col min="30" max="30" width="7.44140625" style="23" customWidth="1"/>
+    <col min="31" max="33" width="7.44140625" style="24" customWidth="1"/>
+    <col min="34" max="40" width="7.44140625" style="23" customWidth="1"/>
+    <col min="41" max="41" width="7.44140625" style="26" customWidth="1"/>
+    <col min="42" max="45" width="7.44140625" style="23" customWidth="1"/>
+    <col min="46" max="46" width="7.44140625" style="26" customWidth="1"/>
+    <col min="47" max="50" width="7.44140625" style="23" customWidth="1"/>
+    <col min="51" max="53" width="6.88671875" style="23" customWidth="1"/>
+    <col min="54" max="68" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="74" max="88" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.109375" style="23" customWidth="1"/>
+    <col min="95" max="95" width="7.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="96" max="105" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="70" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="DA1" s="31"/>
       <c r="DB1" s="49"/>
     </row>
-    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="DN2" s="30"/>
       <c r="DO2" s="30"/>
     </row>
-    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="CL3" s="26"/>
       <c r="DB3" s="25"/>
     </row>
-    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="CL4" s="26"/>
       <c r="DB4" s="25"/>
     </row>
-    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="CL5" s="26"/>
       <c r="DB5" s="25"/>
     </row>
-    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="CL6" s="26"/>
       <c r="DB6" s="25"/>
     </row>
-    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="CL7" s="26"/>
       <c r="DB7" s="25"/>
     </row>
-    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="CL8" s="26"/>
       <c r="DB8" s="25"/>
     </row>
-    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="CL9" s="26"/>
       <c r="DB9" s="25"/>
     </row>
-    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="CL10" s="26"/>
       <c r="DB10" s="25"/>
     </row>
-    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="CL11" s="26"/>
       <c r="DB11" s="25"/>
     </row>
-    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="CL12" s="26"/>
       <c r="DB12" s="25"/>
     </row>
-    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="CL13" s="26"/>
       <c r="DB13" s="25"/>
     </row>
-    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="CL14" s="26"/>
       <c r="DB14" s="25"/>
     </row>
-    <row r="15" spans="1:119" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:119" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="CL15" s="32"/>
       <c r="DB15" s="39"/>
     </row>
-    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="CL16" s="29"/>
       <c r="DB16" s="49"/>
     </row>
-    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="CL17" s="26"/>
       <c r="DB17" s="25"/>
     </row>
-    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="CL18" s="26"/>
       <c r="DB18" s="25"/>
     </row>
-    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="CL19" s="26"/>
       <c r="DB19" s="25"/>
     </row>
-    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="CL20" s="26"/>
       <c r="DB20" s="25"/>
     </row>
-    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="CL21" s="26"/>
       <c r="DB21" s="25"/>
     </row>
-    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="CL22" s="26"/>
       <c r="DB22" s="25"/>
     </row>
-    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="CL23" s="26"/>
       <c r="DB23" s="25"/>
     </row>
-    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="CL24" s="26"/>
       <c r="DB24" s="25"/>
     </row>
-    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="CL25" s="26"/>
       <c r="DB25" s="25"/>
     </row>
-    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>54</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="CL26" s="26"/>
       <c r="DB26" s="25"/>
     </row>
-    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="CL27" s="26"/>
       <c r="DB27" s="25"/>
     </row>
-    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>56</v>
       </c>
@@ -19076,7 +19076,7 @@
       <c r="XFC28" s="43"/>
       <c r="XFD28" s="43"/>
     </row>
-    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -19095,7 +19095,7 @@
       <c r="CL29" s="26"/>
       <c r="DB29" s="25"/>
     </row>
-    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -19114,7 +19114,7 @@
       <c r="CL30" s="26"/>
       <c r="DB30" s="25"/>
     </row>
-    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
         <v>26</v>
       </c>
@@ -19132,7 +19132,7 @@
       <c r="CL31" s="26"/>
       <c r="DB31" s="25"/>
     </row>
-    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>59</v>
       </c>
@@ -19151,7 +19151,7 @@
       <c r="CL32" s="26"/>
       <c r="DB32" s="25"/>
     </row>
-    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>43</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="CL33" s="26"/>
       <c r="DB33" s="25"/>
     </row>
-    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>44</v>
       </c>
@@ -19191,7 +19191,7 @@
       <c r="CL34" s="26"/>
       <c r="DB34" s="25"/>
     </row>
-    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
         <v>46</v>
       </c>
@@ -19210,7 +19210,7 @@
       <c r="CL35" s="26"/>
       <c r="DB35" s="25"/>
     </row>
-    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
@@ -19231,7 +19231,7 @@
       <c r="CL36" s="26"/>
       <c r="DB36" s="25"/>
     </row>
-    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>47</v>
       </c>
@@ -19250,7 +19250,7 @@
       <c r="CL37" s="26"/>
       <c r="DB37" s="25"/>
     </row>
-    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>48</v>
       </c>
@@ -19269,7 +19269,7 @@
       <c r="CL38" s="26"/>
       <c r="DB38" s="25"/>
     </row>
-    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
         <v>49</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="CL39" s="26"/>
       <c r="DB39" s="25"/>
     </row>
-    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>50</v>
       </c>
@@ -19307,7 +19307,7 @@
       <c r="CL40" s="26"/>
       <c r="DB40" s="25"/>
     </row>
-    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>60</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="CL41" s="26"/>
       <c r="DB41" s="25"/>
     </row>
-    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>61</v>
       </c>
@@ -19347,7 +19347,7 @@
       <c r="CL42" s="26"/>
       <c r="DB42" s="25"/>
     </row>
-    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>63</v>
       </c>
@@ -19369,7 +19369,7 @@
       <c r="CL43" s="26"/>
       <c r="DB43" s="25"/>
     </row>
-    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>20</v>
       </c>
@@ -19395,7 +19395,7 @@
       <c r="CL44" s="26"/>
       <c r="DB44" s="25"/>
     </row>
-    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>24</v>
       </c>
@@ -19414,13 +19414,14 @@
       <c r="CL45" s="26"/>
       <c r="DB45" s="25"/>
     </row>
-    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="26"/>
       <c r="E46" s="24"/>
       <c r="R46" s="26"/>
+      <c r="AD46" s="27"/>
       <c r="AE46" s="24"/>
       <c r="AF46" s="24"/>
       <c r="AG46" s="24"/>
@@ -19436,7 +19437,7 @@
       <c r="CL46" s="26"/>
       <c r="DB46" s="25"/>
     </row>
-    <row r="47" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="52" t="s">
         <v>64</v>
       </c>
@@ -19473,7 +19474,7 @@
       <c r="CL47" s="26"/>
       <c r="DB47" s="25"/>
     </row>
-    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>4</v>
       </c>
@@ -19495,7 +19496,7 @@
       <c r="CL48" s="29"/>
       <c r="DB48" s="49"/>
     </row>
-    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>67</v>
       </c>
@@ -19514,7 +19515,7 @@
       <c r="CL49" s="26"/>
       <c r="DB49" s="25"/>
     </row>
-    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>66</v>
       </c>
@@ -19537,7 +19538,7 @@
       <c r="CL50" s="26"/>
       <c r="DB50" s="25"/>
     </row>
-    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>74</v>
       </c>
@@ -19560,7 +19561,7 @@
       <c r="CL51" s="26"/>
       <c r="DB51" s="25"/>
     </row>
-    <row r="52" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="52" t="s">
         <v>68</v>
       </c>
@@ -19585,7 +19586,7 @@
       <c r="CL52" s="26"/>
       <c r="DB52" s="25"/>
     </row>
-    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>2</v>
       </c>
@@ -19610,7 +19611,7 @@
       <c r="CL53" s="29"/>
       <c r="DB53" s="49"/>
     </row>
-    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>3</v>
       </c>
@@ -19633,7 +19634,7 @@
       <c r="CL54" s="26"/>
       <c r="DB54" s="25"/>
     </row>
-    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
@@ -19654,7 +19655,7 @@
       <c r="CL55" s="26"/>
       <c r="DB55" s="25"/>
     </row>
-    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>0</v>
       </c>
@@ -19680,7 +19681,7 @@
       <c r="CL56" s="26"/>
       <c r="DB56" s="25"/>
     </row>
-    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
         <v>59</v>
       </c>
@@ -19700,7 +19701,7 @@
       <c r="CL57" s="26"/>
       <c r="DB57" s="25"/>
     </row>
-    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
         <v>43</v>
       </c>
@@ -19720,7 +19721,7 @@
       <c r="CL58" s="26"/>
       <c r="DB58" s="25"/>
     </row>
-    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
         <v>44</v>
       </c>
@@ -19740,7 +19741,7 @@
       <c r="CL59" s="26"/>
       <c r="DB59" s="25"/>
     </row>
-    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
         <v>46</v>
       </c>
@@ -19760,7 +19761,7 @@
       <c r="CL60" s="26"/>
       <c r="DB60" s="25"/>
     </row>
-    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
         <v>45</v>
       </c>
@@ -19780,7 +19781,7 @@
       <c r="CL61" s="26"/>
       <c r="DB61" s="25"/>
     </row>
-    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
         <v>47</v>
       </c>
@@ -19800,7 +19801,7 @@
       <c r="CL62" s="26"/>
       <c r="DB62" s="25"/>
     </row>
-    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
         <v>48</v>
       </c>
@@ -19820,7 +19821,7 @@
       <c r="CL63" s="26"/>
       <c r="DB63" s="25"/>
     </row>
-    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
         <v>49</v>
       </c>
@@ -19840,7 +19841,7 @@
       <c r="CL64" s="26"/>
       <c r="DB64" s="25"/>
     </row>
-    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
         <v>50</v>
       </c>
@@ -19860,7 +19861,7 @@
       <c r="CL65" s="26"/>
       <c r="DB65" s="25"/>
     </row>
-    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50" t="s">
         <v>60</v>
       </c>
@@ -19880,7 +19881,7 @@
       <c r="CL66" s="26"/>
       <c r="DB66" s="25"/>
     </row>
-    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="50" t="s">
         <v>61</v>
       </c>
@@ -19900,7 +19901,7 @@
       <c r="CL67" s="26"/>
       <c r="DB67" s="25"/>
     </row>
-    <row r="68" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="37" t="s">
         <v>70</v>
       </c>
@@ -19931,7 +19932,7 @@
       <c r="CL68" s="32"/>
       <c r="DB68" s="39"/>
     </row>
-    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>29</v>
       </c>
@@ -19950,7 +19951,7 @@
       <c r="CL69" s="29"/>
       <c r="DB69" s="49"/>
     </row>
-    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="54" t="s">
         <v>31</v>
       </c>
@@ -19969,7 +19970,7 @@
       <c r="CL70" s="26"/>
       <c r="DB70" s="25"/>
     </row>
-    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
         <v>35</v>
       </c>
@@ -19990,7 +19991,7 @@
       <c r="CL71" s="26"/>
       <c r="DB71" s="25"/>
     </row>
-    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
         <v>30</v>
       </c>
@@ -20010,7 +20011,7 @@
       <c r="CL72" s="26"/>
       <c r="DB72" s="25"/>
     </row>
-    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>33</v>
       </c>
@@ -20030,7 +20031,7 @@
       <c r="CL73" s="57"/>
       <c r="DB73" s="60"/>
     </row>
-    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
         <v>80</v>
       </c>
@@ -20051,7 +20052,7 @@
       <c r="CL74" s="57"/>
       <c r="DB74" s="60"/>
     </row>
-    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50" t="s">
         <v>75</v>
       </c>
@@ -20072,7 +20073,7 @@
       <c r="CL75" s="57"/>
       <c r="DB75" s="60"/>
     </row>
-    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
         <v>76</v>
       </c>
@@ -20093,7 +20094,7 @@
       <c r="CL76" s="57"/>
       <c r="DB76" s="60"/>
     </row>
-    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
@@ -20114,7 +20115,7 @@
       <c r="CL77" s="57"/>
       <c r="DB77" s="60"/>
     </row>
-    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
         <v>78</v>
       </c>
@@ -20135,7 +20136,7 @@
       <c r="CL78" s="57"/>
       <c r="DB78" s="60"/>
     </row>
-    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50" t="s">
         <v>79</v>
       </c>
@@ -20156,7 +20157,7 @@
       <c r="CL79" s="57"/>
       <c r="DB79" s="60"/>
     </row>
-    <row r="80" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="52" t="s">
         <v>73</v>
       </c>
@@ -20186,7 +20187,7 @@
       <c r="CL80" s="26"/>
       <c r="DB80" s="25"/>
     </row>
-    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
         <v>5</v>
       </c>
@@ -20206,7 +20207,7 @@
       <c r="CM81" s="53"/>
       <c r="DB81" s="49"/>
     </row>
-    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>12</v>
       </c>
@@ -20226,7 +20227,7 @@
       <c r="CN82" s="27"/>
       <c r="DB82" s="25"/>
     </row>
-    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>25</v>
       </c>
@@ -20246,7 +20247,7 @@
       <c r="CN83" s="27"/>
       <c r="DB83" s="25"/>
     </row>
-    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>82</v>
       </c>
@@ -20266,7 +20267,7 @@
       <c r="CN84" s="27"/>
       <c r="DB84" s="25"/>
     </row>
-    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>84</v>
       </c>
@@ -20289,7 +20290,7 @@
       <c r="CR85" s="27"/>
       <c r="DB85" s="25"/>
     </row>
-    <row r="86" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="37" t="s">
         <v>83</v>
       </c>
@@ -20340,538 +20341,538 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43123</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43128</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43130</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43131</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43132</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43137</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43138</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43139</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43142</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43143</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43144</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>43149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>43150</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>43151</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>43152</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>43153</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43156</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43157</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43159</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43160</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>43166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>43167</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43170</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43171</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43173</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43174</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>43177</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43178</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>43179</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43180</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>43181</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43184</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43185</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43186</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43187</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43188</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>43191</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43192</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>43193</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>43195</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43198</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43199</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43200</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43201</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43202</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>43205</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>43206</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>43207</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>43208</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>43209</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43212</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43213</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43214</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43216</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>43219</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>43220</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>43221</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>43222</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>43223</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43226</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43227</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43228</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43229</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>43230</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>43233</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>43235</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>43236</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>43237</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>43241</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>43242</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>43243</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>43244</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>43247</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>43248</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>43249</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>43251</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43254</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43255</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43256</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43257</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43258</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>43261</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>43262</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>43263</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>43264</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>43265</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43268</v>
       </c>
@@ -20890,14 +20891,14 @@
       <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="95.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="14">
         <v>1</v>
       </c>
@@ -20908,7 +20909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -20930,7 +20931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -20941,7 +20942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -20952,7 +20953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
@@ -20982,7 +20983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -20990,102 +20991,102 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
@@ -21103,192 +21104,192 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.henrique\Documents\Senai\1_Semestre_2019\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\repositories\github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPACIDADES" sheetId="1" r:id="rId1"/>
@@ -1473,208 +1473,208 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>35</v>
       </c>
@@ -1689,45 +1689,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB47" sqref="AB47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA69" sqref="CA69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="26" customWidth="1"/>
-    <col min="3" max="4" width="6.5546875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="24" customWidth="1"/>
-    <col min="6" max="16" width="6.5546875" style="23" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="25" customWidth="1"/>
-    <col min="18" max="18" width="6.5546875" style="26" customWidth="1"/>
-    <col min="19" max="29" width="6.5546875" style="23" customWidth="1"/>
-    <col min="30" max="30" width="7.44140625" style="23" customWidth="1"/>
-    <col min="31" max="33" width="7.44140625" style="24" customWidth="1"/>
-    <col min="34" max="40" width="7.44140625" style="23" customWidth="1"/>
-    <col min="41" max="41" width="7.44140625" style="26" customWidth="1"/>
-    <col min="42" max="45" width="7.44140625" style="23" customWidth="1"/>
-    <col min="46" max="46" width="7.44140625" style="26" customWidth="1"/>
-    <col min="47" max="50" width="7.44140625" style="23" customWidth="1"/>
-    <col min="51" max="53" width="6.88671875" style="23" customWidth="1"/>
-    <col min="54" max="68" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.88671875" style="26" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="6.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="74" max="88" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.109375" style="23" customWidth="1"/>
-    <col min="95" max="95" width="7.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="96" max="105" width="6.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="16384" width="9.109375" style="2"/>
+    <col min="2" max="2" width="6.5703125" style="26" customWidth="1"/>
+    <col min="3" max="4" width="6.5703125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
+    <col min="6" max="16" width="6.5703125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="25" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="26" customWidth="1"/>
+    <col min="19" max="29" width="6.5703125" style="23" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" style="23" customWidth="1"/>
+    <col min="31" max="33" width="7.42578125" style="24" customWidth="1"/>
+    <col min="34" max="40" width="7.42578125" style="23" customWidth="1"/>
+    <col min="41" max="41" width="7.42578125" style="26" customWidth="1"/>
+    <col min="42" max="45" width="7.42578125" style="23" customWidth="1"/>
+    <col min="46" max="46" width="7.42578125" style="26" customWidth="1"/>
+    <col min="47" max="50" width="7.42578125" style="23" customWidth="1"/>
+    <col min="51" max="53" width="6.85546875" style="23" customWidth="1"/>
+    <col min="54" max="68" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="74" max="88" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.140625" style="23" customWidth="1"/>
+    <col min="95" max="95" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="96" max="105" width="6.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="DA1" s="31"/>
       <c r="DB1" s="49"/>
     </row>
-    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>40</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="DN2" s="30"/>
       <c r="DO2" s="30"/>
     </row>
-    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="CL3" s="26"/>
       <c r="DB3" s="25"/>
     </row>
-    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="CL4" s="26"/>
       <c r="DB4" s="25"/>
     </row>
-    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="CL5" s="26"/>
       <c r="DB5" s="25"/>
     </row>
-    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="CL6" s="26"/>
       <c r="DB6" s="25"/>
     </row>
-    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="CL7" s="26"/>
       <c r="DB7" s="25"/>
     </row>
-    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="CL8" s="26"/>
       <c r="DB8" s="25"/>
     </row>
-    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2318,7 @@
       <c r="CL9" s="26"/>
       <c r="DB9" s="25"/>
     </row>
-    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="CL10" s="26"/>
       <c r="DB10" s="25"/>
     </row>
-    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="CL11" s="26"/>
       <c r="DB11" s="25"/>
     </row>
-    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="CL12" s="26"/>
       <c r="DB12" s="25"/>
     </row>
-    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="CL13" s="26"/>
       <c r="DB13" s="25"/>
     </row>
-    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:119" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="CL14" s="26"/>
       <c r="DB14" s="25"/>
     </row>
-    <row r="15" spans="1:119" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:119" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>41</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="CL15" s="32"/>
       <c r="DB15" s="39"/>
     </row>
-    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="CL16" s="29"/>
       <c r="DB16" s="49"/>
     </row>
-    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="CL17" s="26"/>
       <c r="DB17" s="25"/>
     </row>
-    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>21</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="CL18" s="26"/>
       <c r="DB18" s="25"/>
     </row>
-    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="CL19" s="26"/>
       <c r="DB19" s="25"/>
     </row>
-    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>27</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="CL20" s="26"/>
       <c r="DB20" s="25"/>
     </row>
-    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>51</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="CL21" s="26"/>
       <c r="DB21" s="25"/>
     </row>
-    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="CL22" s="26"/>
       <c r="DB22" s="25"/>
     </row>
-    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="CL23" s="26"/>
       <c r="DB23" s="25"/>
     </row>
-    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>52</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="CL24" s="26"/>
       <c r="DB24" s="25"/>
     </row>
-    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="CL25" s="26"/>
       <c r="DB25" s="25"/>
     </row>
-    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>54</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="CL26" s="26"/>
       <c r="DB26" s="25"/>
     </row>
-    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>55</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="CL27" s="26"/>
       <c r="DB27" s="25"/>
     </row>
-    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>56</v>
       </c>
@@ -19076,7 +19076,7 @@
       <c r="XFC28" s="43"/>
       <c r="XFD28" s="43"/>
     </row>
-    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -19095,7 +19095,7 @@
       <c r="CL29" s="26"/>
       <c r="DB29" s="25"/>
     </row>
-    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -19114,7 +19114,7 @@
       <c r="CL30" s="26"/>
       <c r="DB30" s="25"/>
     </row>
-    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>26</v>
       </c>
@@ -19132,7 +19132,7 @@
       <c r="CL31" s="26"/>
       <c r="DB31" s="25"/>
     </row>
-    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>59</v>
       </c>
@@ -19151,7 +19151,7 @@
       <c r="CL32" s="26"/>
       <c r="DB32" s="25"/>
     </row>
-    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>43</v>
       </c>
@@ -19170,7 +19170,7 @@
       <c r="CL33" s="26"/>
       <c r="DB33" s="25"/>
     </row>
-    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>44</v>
       </c>
@@ -19191,7 +19191,7 @@
       <c r="CL34" s="26"/>
       <c r="DB34" s="25"/>
     </row>
-    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>46</v>
       </c>
@@ -19210,7 +19210,7 @@
       <c r="CL35" s="26"/>
       <c r="DB35" s="25"/>
     </row>
-    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
@@ -19231,7 +19231,7 @@
       <c r="CL36" s="26"/>
       <c r="DB36" s="25"/>
     </row>
-    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>47</v>
       </c>
@@ -19250,7 +19250,7 @@
       <c r="CL37" s="26"/>
       <c r="DB37" s="25"/>
     </row>
-    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>48</v>
       </c>
@@ -19269,7 +19269,7 @@
       <c r="CL38" s="26"/>
       <c r="DB38" s="25"/>
     </row>
-    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>49</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="CL39" s="26"/>
       <c r="DB39" s="25"/>
     </row>
-    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>50</v>
       </c>
@@ -19307,7 +19307,7 @@
       <c r="CL40" s="26"/>
       <c r="DB40" s="25"/>
     </row>
-    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>60</v>
       </c>
@@ -19327,7 +19327,7 @@
       <c r="CL41" s="26"/>
       <c r="DB41" s="25"/>
     </row>
-    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>61</v>
       </c>
@@ -19347,7 +19347,7 @@
       <c r="CL42" s="26"/>
       <c r="DB42" s="25"/>
     </row>
-    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>63</v>
       </c>
@@ -19369,7 +19369,7 @@
       <c r="CL43" s="26"/>
       <c r="DB43" s="25"/>
     </row>
-    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>20</v>
       </c>
@@ -19395,7 +19395,7 @@
       <c r="CL44" s="26"/>
       <c r="DB44" s="25"/>
     </row>
-    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>24</v>
       </c>
@@ -19414,7 +19414,7 @@
       <c r="CL45" s="26"/>
       <c r="DB45" s="25"/>
     </row>
-    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>28</v>
       </c>
@@ -19437,7 +19437,7 @@
       <c r="CL46" s="26"/>
       <c r="DB46" s="25"/>
     </row>
-    <row r="47" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="52" t="s">
         <v>64</v>
       </c>
@@ -19474,7 +19474,7 @@
       <c r="CL47" s="26"/>
       <c r="DB47" s="25"/>
     </row>
-    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>4</v>
       </c>
@@ -19496,7 +19496,7 @@
       <c r="CL48" s="29"/>
       <c r="DB48" s="49"/>
     </row>
-    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>67</v>
       </c>
@@ -19515,7 +19515,7 @@
       <c r="CL49" s="26"/>
       <c r="DB49" s="25"/>
     </row>
-    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>66</v>
       </c>
@@ -19538,7 +19538,7 @@
       <c r="CL50" s="26"/>
       <c r="DB50" s="25"/>
     </row>
-    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>74</v>
       </c>
@@ -19561,7 +19561,7 @@
       <c r="CL51" s="26"/>
       <c r="DB51" s="25"/>
     </row>
-    <row r="52" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="52" t="s">
         <v>68</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="CL52" s="26"/>
       <c r="DB52" s="25"/>
     </row>
-    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>2</v>
       </c>
@@ -19611,7 +19611,7 @@
       <c r="CL53" s="29"/>
       <c r="DB53" s="49"/>
     </row>
-    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>3</v>
       </c>
@@ -19634,7 +19634,7 @@
       <c r="CL54" s="26"/>
       <c r="DB54" s="25"/>
     </row>
-    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
@@ -19655,7 +19655,7 @@
       <c r="CL55" s="26"/>
       <c r="DB55" s="25"/>
     </row>
-    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>0</v>
       </c>
@@ -19681,7 +19681,7 @@
       <c r="CL56" s="26"/>
       <c r="DB56" s="25"/>
     </row>
-    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>59</v>
       </c>
@@ -19701,7 +19701,7 @@
       <c r="CL57" s="26"/>
       <c r="DB57" s="25"/>
     </row>
-    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>43</v>
       </c>
@@ -19721,7 +19721,7 @@
       <c r="CL58" s="26"/>
       <c r="DB58" s="25"/>
     </row>
-    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
         <v>44</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="CL59" s="26"/>
       <c r="DB59" s="25"/>
     </row>
-    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>46</v>
       </c>
@@ -19761,7 +19761,7 @@
       <c r="CL60" s="26"/>
       <c r="DB60" s="25"/>
     </row>
-    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
         <v>45</v>
       </c>
@@ -19781,7 +19781,7 @@
       <c r="CL61" s="26"/>
       <c r="DB61" s="25"/>
     </row>
-    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="50" t="s">
         <v>47</v>
       </c>
@@ -19801,7 +19801,7 @@
       <c r="CL62" s="26"/>
       <c r="DB62" s="25"/>
     </row>
-    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>48</v>
       </c>
@@ -19821,7 +19821,7 @@
       <c r="CL63" s="26"/>
       <c r="DB63" s="25"/>
     </row>
-    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
         <v>49</v>
       </c>
@@ -19841,7 +19841,7 @@
       <c r="CL64" s="26"/>
       <c r="DB64" s="25"/>
     </row>
-    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
         <v>50</v>
       </c>
@@ -19861,7 +19861,7 @@
       <c r="CL65" s="26"/>
       <c r="DB65" s="25"/>
     </row>
-    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
         <v>60</v>
       </c>
@@ -19881,7 +19881,7 @@
       <c r="CL66" s="26"/>
       <c r="DB66" s="25"/>
     </row>
-    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50" t="s">
         <v>61</v>
       </c>
@@ -19901,7 +19901,7 @@
       <c r="CL67" s="26"/>
       <c r="DB67" s="25"/>
     </row>
-    <row r="68" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
         <v>70</v>
       </c>
@@ -19932,7 +19932,7 @@
       <c r="CL68" s="32"/>
       <c r="DB68" s="39"/>
     </row>
-    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="61" t="s">
         <v>29</v>
       </c>
@@ -19951,7 +19951,7 @@
       <c r="CL69" s="29"/>
       <c r="DB69" s="49"/>
     </row>
-    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
         <v>31</v>
       </c>
@@ -19970,7 +19970,7 @@
       <c r="CL70" s="26"/>
       <c r="DB70" s="25"/>
     </row>
-    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="62" t="s">
         <v>35</v>
       </c>
@@ -19991,7 +19991,7 @@
       <c r="CL71" s="26"/>
       <c r="DB71" s="25"/>
     </row>
-    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
         <v>30</v>
       </c>
@@ -20011,7 +20011,7 @@
       <c r="CL72" s="26"/>
       <c r="DB72" s="25"/>
     </row>
-    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>33</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="CL73" s="57"/>
       <c r="DB73" s="60"/>
     </row>
-    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>80</v>
       </c>
@@ -20052,7 +20052,7 @@
       <c r="CL74" s="57"/>
       <c r="DB74" s="60"/>
     </row>
-    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
         <v>75</v>
       </c>
@@ -20073,7 +20073,7 @@
       <c r="CL75" s="57"/>
       <c r="DB75" s="60"/>
     </row>
-    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
         <v>76</v>
       </c>
@@ -20094,7 +20094,7 @@
       <c r="CL76" s="57"/>
       <c r="DB76" s="60"/>
     </row>
-    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="CL77" s="57"/>
       <c r="DB77" s="60"/>
     </row>
-    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
         <v>78</v>
       </c>
@@ -20136,7 +20136,7 @@
       <c r="CL78" s="57"/>
       <c r="DB78" s="60"/>
     </row>
-    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
         <v>79</v>
       </c>
@@ -20157,7 +20157,7 @@
       <c r="CL79" s="57"/>
       <c r="DB79" s="60"/>
     </row>
-    <row r="80" spans="1:106" s="23" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="52" t="s">
         <v>73</v>
       </c>
@@ -20187,7 +20187,7 @@
       <c r="CL80" s="26"/>
       <c r="DB80" s="25"/>
     </row>
-    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>5</v>
       </c>
@@ -20207,7 +20207,7 @@
       <c r="CM81" s="53"/>
       <c r="DB81" s="49"/>
     </row>
-    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
         <v>12</v>
       </c>
@@ -20227,7 +20227,7 @@
       <c r="CN82" s="27"/>
       <c r="DB82" s="25"/>
     </row>
-    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>25</v>
       </c>
@@ -20247,7 +20247,7 @@
       <c r="CN83" s="27"/>
       <c r="DB83" s="25"/>
     </row>
-    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
         <v>82</v>
       </c>
@@ -20267,7 +20267,7 @@
       <c r="CN84" s="27"/>
       <c r="DB84" s="25"/>
     </row>
-    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
         <v>84</v>
       </c>
@@ -20290,7 +20290,7 @@
       <c r="CR85" s="27"/>
       <c r="DB85" s="25"/>
     </row>
-    <row r="86" spans="1:106" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
         <v>83</v>
       </c>
@@ -20341,538 +20341,538 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43123</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43128</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43130</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43131</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43132</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43137</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43138</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43139</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43142</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43143</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43144</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43145</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43146</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43149</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43150</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43151</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43152</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43153</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43156</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43157</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43158</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43159</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43160</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43164</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43167</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43170</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43171</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43172</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43173</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43174</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43177</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43178</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43179</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43180</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43181</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43184</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43185</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43186</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43187</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43188</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43191</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43192</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43193</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43195</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43198</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43199</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43200</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43201</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43202</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43205</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43206</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43207</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43208</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43209</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43212</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43213</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43214</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43215</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43216</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43219</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>43220</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43221</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43222</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43223</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43226</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43227</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43228</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43229</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43230</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>43233</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43235</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43236</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43237</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43240</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>43241</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>43242</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>43243</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>43244</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43247</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43248</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>43249</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>43251</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>43254</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>43255</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>43256</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>43257</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>43258</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43261</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>43262</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>43263</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>43264</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>43265</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>43268</v>
       </c>
@@ -20891,14 +20891,14 @@
       <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="95.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14">
         <v>1</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -20991,102 +20991,102 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
@@ -21104,192 +21104,192 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Documents\repositories\github\senai-dev-1s2019\planejamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -838,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1113,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1150,6 +1155,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,9 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA69" sqref="CA69"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS53" sqref="AS53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,104 +1734,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="67" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68" t="s">
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="67" t="s">
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="68"/>
-      <c r="BS1" s="68"/>
-      <c r="BT1" s="68"/>
-      <c r="BU1" s="68"/>
-      <c r="BV1" s="68"/>
-      <c r="BW1" s="68"/>
-      <c r="BX1" s="68"/>
-      <c r="BY1" s="68"/>
-      <c r="BZ1" s="68"/>
-      <c r="CA1" s="68"/>
-      <c r="CB1" s="68"/>
-      <c r="CC1" s="68"/>
-      <c r="CD1" s="68"/>
-      <c r="CE1" s="68"/>
-      <c r="CF1" s="68"/>
-      <c r="CG1" s="68"/>
-      <c r="CH1" s="68"/>
-      <c r="CI1" s="68"/>
-      <c r="CJ1" s="68"/>
-      <c r="CK1" s="69"/>
+      <c r="BR1" s="67"/>
+      <c r="BS1" s="67"/>
+      <c r="BT1" s="67"/>
+      <c r="BU1" s="67"/>
+      <c r="BV1" s="67"/>
+      <c r="BW1" s="67"/>
+      <c r="BX1" s="67"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="67"/>
+      <c r="CC1" s="67"/>
+      <c r="CD1" s="67"/>
+      <c r="CE1" s="67"/>
+      <c r="CF1" s="67"/>
+      <c r="CG1" s="67"/>
+      <c r="CH1" s="67"/>
+      <c r="CI1" s="67"/>
+      <c r="CJ1" s="67"/>
+      <c r="CK1" s="68"/>
       <c r="CL1" s="29"/>
       <c r="CM1" s="31"/>
       <c r="CN1" s="31"/>
@@ -1980,7 +1986,7 @@
       <c r="AS2" s="18">
         <v>43181</v>
       </c>
-      <c r="AT2" s="66">
+      <c r="AT2" s="65">
         <v>43184</v>
       </c>
       <c r="AU2" s="51">
@@ -1995,19 +2001,19 @@
       <c r="AX2" s="51">
         <v>43188</v>
       </c>
-      <c r="AY2" s="56">
+      <c r="AY2" s="55">
         <v>43191</v>
       </c>
-      <c r="AZ2" s="56">
+      <c r="AZ2" s="55">
         <v>43192</v>
       </c>
-      <c r="BA2" s="56">
+      <c r="BA2" s="55">
         <v>43193</v>
       </c>
-      <c r="BB2" s="56">
+      <c r="BB2" s="55">
         <v>43194</v>
       </c>
-      <c r="BC2" s="56">
+      <c r="BC2" s="55">
         <v>43195</v>
       </c>
       <c r="BD2" s="51">
@@ -2025,19 +2031,19 @@
       <c r="BH2" s="51">
         <v>43202</v>
       </c>
-      <c r="BI2" s="56">
+      <c r="BI2" s="55">
         <v>43205</v>
       </c>
-      <c r="BJ2" s="56">
+      <c r="BJ2" s="55">
         <v>43206</v>
       </c>
-      <c r="BK2" s="56">
+      <c r="BK2" s="55">
         <v>43207</v>
       </c>
-      <c r="BL2" s="56">
+      <c r="BL2" s="55">
         <v>43208</v>
       </c>
-      <c r="BM2" s="56">
+      <c r="BM2" s="55">
         <v>43209</v>
       </c>
       <c r="BN2" s="51">
@@ -2763,7 +2769,7 @@
       <c r="BR28" s="43"/>
       <c r="BS28" s="43"/>
       <c r="BT28" s="43"/>
-      <c r="BU28" s="65"/>
+      <c r="BU28" s="64"/>
       <c r="BV28" s="43"/>
       <c r="BW28" s="43"/>
       <c r="BX28" s="43"/>
@@ -19452,10 +19458,10 @@
       <c r="AJ47" s="27"/>
       <c r="AK47" s="27"/>
       <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27">
-        <v>20</v>
-      </c>
+      <c r="AM47" s="27">
+        <v>19</v>
+      </c>
+      <c r="AN47" s="71"/>
       <c r="AO47" s="54"/>
       <c r="AP47" s="40"/>
       <c r="AQ47" s="40"/>
@@ -19485,7 +19491,8 @@
       <c r="AE48" s="47"/>
       <c r="AF48" s="47"/>
       <c r="AG48" s="47"/>
-      <c r="AO48" s="55"/>
+      <c r="AN48" s="53"/>
+      <c r="AO48" s="29"/>
       <c r="AT48" s="29"/>
       <c r="BA48" s="23" t="s">
         <v>88</v>
@@ -19577,7 +19584,7 @@
       <c r="AQ52" s="27"/>
       <c r="AR52" s="27"/>
       <c r="AS52" s="27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT52" s="26"/>
       <c r="BQ52" s="26"/>
@@ -19895,6 +19902,9 @@
       <c r="AO67" s="26"/>
       <c r="AT67" s="26"/>
       <c r="BC67" s="27"/>
+      <c r="BG67" s="27"/>
+      <c r="BH67" s="27"/>
+      <c r="BI67" s="27"/>
       <c r="BQ67" s="26"/>
       <c r="BU67" s="24"/>
       <c r="CK67" s="25"/>
@@ -19914,9 +19924,6 @@
       <c r="AG68" s="34"/>
       <c r="AO68" s="32"/>
       <c r="AT68" s="32"/>
-      <c r="BG68" s="35"/>
-      <c r="BH68" s="35"/>
-      <c r="BI68" s="35"/>
       <c r="BJ68" s="35"/>
       <c r="BK68" s="35"/>
       <c r="BL68" s="35"/>
@@ -19933,7 +19940,7 @@
       <c r="DB68" s="39"/>
     </row>
     <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="29"/>
@@ -19971,7 +19978,7 @@
       <c r="DB70" s="25"/>
     </row>
     <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="61" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="26"/>
@@ -20011,151 +20018,151 @@
       <c r="CL72" s="26"/>
       <c r="DB72" s="25"/>
     </row>
-    <row r="73" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="E73" s="59"/>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="57"/>
-      <c r="AE73" s="59"/>
-      <c r="AF73" s="59"/>
-      <c r="AG73" s="59"/>
-      <c r="AO73" s="57"/>
-      <c r="AT73" s="57"/>
-      <c r="BQ73" s="57"/>
-      <c r="BT73" s="63"/>
-      <c r="BU73" s="59"/>
-      <c r="CK73" s="60"/>
-      <c r="CL73" s="57"/>
-      <c r="DB73" s="60"/>
-    </row>
-    <row r="74" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57" t="s">
+      <c r="B73" s="56"/>
+      <c r="E73" s="58"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="56"/>
+      <c r="AE73" s="58"/>
+      <c r="AF73" s="58"/>
+      <c r="AG73" s="58"/>
+      <c r="AO73" s="56"/>
+      <c r="AT73" s="56"/>
+      <c r="BQ73" s="56"/>
+      <c r="BT73" s="62"/>
+      <c r="BU73" s="58"/>
+      <c r="CK73" s="59"/>
+      <c r="CL73" s="56"/>
+      <c r="DB73" s="59"/>
+    </row>
+    <row r="74" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="E74" s="59"/>
-      <c r="Q74" s="60"/>
-      <c r="R74" s="57"/>
-      <c r="AE74" s="59"/>
-      <c r="AF74" s="59"/>
-      <c r="AG74" s="59"/>
-      <c r="AO74" s="57"/>
-      <c r="AT74" s="57"/>
-      <c r="BQ74" s="57"/>
-      <c r="BT74" s="64"/>
-      <c r="BU74" s="59"/>
-      <c r="BV74" s="63"/>
-      <c r="CK74" s="60"/>
-      <c r="CL74" s="57"/>
-      <c r="DB74" s="60"/>
-    </row>
-    <row r="75" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="56"/>
+      <c r="E74" s="58"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="56"/>
+      <c r="AE74" s="58"/>
+      <c r="AF74" s="58"/>
+      <c r="AG74" s="58"/>
+      <c r="AO74" s="56"/>
+      <c r="AT74" s="56"/>
+      <c r="BQ74" s="56"/>
+      <c r="BT74" s="63"/>
+      <c r="BU74" s="58"/>
+      <c r="BV74" s="62"/>
+      <c r="CK74" s="59"/>
+      <c r="CL74" s="56"/>
+      <c r="DB74" s="59"/>
+    </row>
+    <row r="75" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="E75" s="59"/>
-      <c r="Q75" s="60"/>
-      <c r="R75" s="57"/>
-      <c r="AE75" s="59"/>
-      <c r="AF75" s="59"/>
-      <c r="AG75" s="59"/>
-      <c r="AO75" s="57"/>
-      <c r="AT75" s="57"/>
-      <c r="BQ75" s="57"/>
-      <c r="BT75" s="64"/>
-      <c r="BU75" s="59"/>
-      <c r="BW75" s="63"/>
-      <c r="CK75" s="60"/>
-      <c r="CL75" s="57"/>
-      <c r="DB75" s="60"/>
-    </row>
-    <row r="76" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="56"/>
+      <c r="E75" s="58"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="56"/>
+      <c r="AE75" s="58"/>
+      <c r="AF75" s="58"/>
+      <c r="AG75" s="58"/>
+      <c r="AO75" s="56"/>
+      <c r="AT75" s="56"/>
+      <c r="BQ75" s="56"/>
+      <c r="BT75" s="63"/>
+      <c r="BU75" s="58"/>
+      <c r="BW75" s="62"/>
+      <c r="CK75" s="59"/>
+      <c r="CL75" s="56"/>
+      <c r="DB75" s="59"/>
+    </row>
+    <row r="76" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="E76" s="59"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="57"/>
-      <c r="AE76" s="59"/>
-      <c r="AF76" s="59"/>
-      <c r="AG76" s="59"/>
-      <c r="AO76" s="57"/>
-      <c r="AT76" s="57"/>
-      <c r="BQ76" s="57"/>
-      <c r="BT76" s="64"/>
-      <c r="BU76" s="59"/>
-      <c r="BX76" s="63"/>
-      <c r="CK76" s="60"/>
-      <c r="CL76" s="57"/>
-      <c r="DB76" s="60"/>
-    </row>
-    <row r="77" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="56"/>
+      <c r="E76" s="58"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="56"/>
+      <c r="AE76" s="58"/>
+      <c r="AF76" s="58"/>
+      <c r="AG76" s="58"/>
+      <c r="AO76" s="56"/>
+      <c r="AT76" s="56"/>
+      <c r="BQ76" s="56"/>
+      <c r="BT76" s="63"/>
+      <c r="BU76" s="58"/>
+      <c r="BX76" s="62"/>
+      <c r="CK76" s="59"/>
+      <c r="CL76" s="56"/>
+      <c r="DB76" s="59"/>
+    </row>
+    <row r="77" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="57"/>
-      <c r="E77" s="59"/>
-      <c r="Q77" s="60"/>
-      <c r="R77" s="57"/>
-      <c r="AE77" s="59"/>
-      <c r="AF77" s="59"/>
-      <c r="AG77" s="59"/>
-      <c r="AO77" s="57"/>
-      <c r="AT77" s="57"/>
-      <c r="BQ77" s="57"/>
-      <c r="BT77" s="64"/>
-      <c r="BU77" s="59"/>
-      <c r="BY77" s="63"/>
-      <c r="CK77" s="60"/>
-      <c r="CL77" s="57"/>
-      <c r="DB77" s="60"/>
-    </row>
-    <row r="78" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="56"/>
+      <c r="E77" s="58"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="56"/>
+      <c r="AE77" s="58"/>
+      <c r="AF77" s="58"/>
+      <c r="AG77" s="58"/>
+      <c r="AO77" s="56"/>
+      <c r="AT77" s="56"/>
+      <c r="BQ77" s="56"/>
+      <c r="BT77" s="63"/>
+      <c r="BU77" s="58"/>
+      <c r="BY77" s="62"/>
+      <c r="CK77" s="59"/>
+      <c r="CL77" s="56"/>
+      <c r="DB77" s="59"/>
+    </row>
+    <row r="78" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="E78" s="59"/>
-      <c r="Q78" s="60"/>
-      <c r="R78" s="57"/>
-      <c r="AE78" s="59"/>
-      <c r="AF78" s="59"/>
-      <c r="AG78" s="59"/>
-      <c r="AO78" s="57"/>
-      <c r="AT78" s="57"/>
-      <c r="BQ78" s="57"/>
-      <c r="BT78" s="64"/>
-      <c r="BU78" s="59"/>
-      <c r="BZ78" s="63"/>
-      <c r="CK78" s="60"/>
-      <c r="CL78" s="57"/>
-      <c r="DB78" s="60"/>
-    </row>
-    <row r="79" spans="1:106" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="56"/>
+      <c r="E78" s="58"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="56"/>
+      <c r="AE78" s="58"/>
+      <c r="AF78" s="58"/>
+      <c r="AG78" s="58"/>
+      <c r="AO78" s="56"/>
+      <c r="AT78" s="56"/>
+      <c r="BQ78" s="56"/>
+      <c r="BT78" s="63"/>
+      <c r="BU78" s="58"/>
+      <c r="BZ78" s="62"/>
+      <c r="CK78" s="59"/>
+      <c r="CL78" s="56"/>
+      <c r="DB78" s="59"/>
+    </row>
+    <row r="79" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="E79" s="59"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="57"/>
-      <c r="AE79" s="59"/>
-      <c r="AF79" s="59"/>
-      <c r="AG79" s="59"/>
-      <c r="AO79" s="57"/>
-      <c r="AT79" s="57"/>
-      <c r="BQ79" s="57"/>
-      <c r="BT79" s="64"/>
-      <c r="BU79" s="59"/>
-      <c r="CA79" s="63"/>
-      <c r="CK79" s="60"/>
-      <c r="CL79" s="57"/>
-      <c r="DB79" s="60"/>
+      <c r="B79" s="56"/>
+      <c r="E79" s="58"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="56"/>
+      <c r="AE79" s="58"/>
+      <c r="AF79" s="58"/>
+      <c r="AG79" s="58"/>
+      <c r="AO79" s="56"/>
+      <c r="AT79" s="56"/>
+      <c r="BQ79" s="56"/>
+      <c r="BT79" s="63"/>
+      <c r="BU79" s="58"/>
+      <c r="CA79" s="62"/>
+      <c r="CK79" s="59"/>
+      <c r="CL79" s="56"/>
+      <c r="DB79" s="59"/>
     </row>
     <row r="80" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="52" t="s">

--- a/planejamento/sprints.xlsx
+++ b/planejamento/sprints.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="94">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -771,10 +771,19 @@
     <t>Entrevista com cliente</t>
   </si>
   <si>
-    <t>Ténicas de Negociação</t>
+    <t>após apresentar um controller</t>
   </si>
   <si>
-    <t>após apresentar um controller</t>
+    <t>introdução javascript</t>
+  </si>
+  <si>
+    <t>início consumir api</t>
+  </si>
+  <si>
+    <t>Técnicas de Negociação</t>
+  </si>
+  <si>
+    <t>SPRINT 6</t>
   </si>
 </sst>
 </file>
@@ -838,7 +847,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,12 +893,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1109,11 +1112,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1139,7 +1140,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,7 +1155,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1695,9 +1708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS53" sqref="AS53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CO24" sqref="CO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,14 +1725,18 @@
     <col min="19" max="29" width="6.5703125" style="23" customWidth="1"/>
     <col min="30" max="30" width="7.42578125" style="23" customWidth="1"/>
     <col min="31" max="33" width="7.42578125" style="24" customWidth="1"/>
-    <col min="34" max="40" width="7.42578125" style="23" customWidth="1"/>
-    <col min="41" max="41" width="7.42578125" style="26" customWidth="1"/>
-    <col min="42" max="45" width="7.42578125" style="23" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="26" customWidth="1"/>
-    <col min="47" max="50" width="7.42578125" style="23" customWidth="1"/>
+    <col min="34" max="39" width="7.42578125" style="23" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" style="26" customWidth="1"/>
+    <col min="41" max="42" width="7.42578125" style="23" customWidth="1"/>
+    <col min="43" max="43" width="7.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="7.42578125" style="23" customWidth="1"/>
+    <col min="46" max="46" width="8.140625" style="25" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" style="26" customWidth="1"/>
+    <col min="48" max="50" width="7.42578125" style="23" customWidth="1"/>
     <col min="51" max="53" width="6.85546875" style="23" customWidth="1"/>
-    <col min="54" max="68" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="67" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="70" max="72" width="6.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="7.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="74" max="88" width="7.140625" style="23" bestFit="1" customWidth="1"/>
@@ -1734,121 +1751,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="66" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="66" t="s">
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="66" t="s">
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="68"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
-      <c r="CO1" s="31"/>
-      <c r="CP1" s="31"/>
-      <c r="CQ1" s="31"/>
-      <c r="CR1" s="31"/>
-      <c r="CS1" s="31"/>
-      <c r="CT1" s="31"/>
-      <c r="CU1" s="31"/>
-      <c r="CV1" s="31"/>
-      <c r="CW1" s="31"/>
-      <c r="CX1" s="31"/>
-      <c r="CY1" s="31"/>
-      <c r="CZ1" s="31"/>
-      <c r="DA1" s="31"/>
-      <c r="DB1" s="49"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="65"/>
+      <c r="CL1" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="64"/>
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64"/>
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64"/>
+      <c r="CY1" s="64"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="64"/>
+      <c r="DB1" s="65"/>
     </row>
     <row r="2" spans="1:119" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -1968,10 +1987,10 @@
       <c r="AM2" s="20">
         <v>43173</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AN2" s="38">
         <v>43174</v>
       </c>
-      <c r="AO2" s="17">
+      <c r="AO2" s="18">
         <v>43177</v>
       </c>
       <c r="AP2" s="18">
@@ -1986,76 +2005,76 @@
       <c r="AS2" s="18">
         <v>43181</v>
       </c>
-      <c r="AT2" s="65">
+      <c r="AT2" s="21">
         <v>43184</v>
       </c>
-      <c r="AU2" s="51">
+      <c r="AU2" s="38">
         <v>43185</v>
       </c>
-      <c r="AV2" s="51">
+      <c r="AV2" s="20">
         <v>43186</v>
       </c>
-      <c r="AW2" s="51">
+      <c r="AW2" s="20">
         <v>43187</v>
       </c>
-      <c r="AX2" s="51">
+      <c r="AX2" s="20">
         <v>43188</v>
       </c>
-      <c r="AY2" s="55">
+      <c r="AY2" s="18">
         <v>43191</v>
       </c>
-      <c r="AZ2" s="55">
+      <c r="AZ2" s="18">
         <v>43192</v>
       </c>
-      <c r="BA2" s="55">
+      <c r="BA2" s="18">
         <v>43193</v>
       </c>
-      <c r="BB2" s="55">
+      <c r="BB2" s="18">
         <v>43194</v>
       </c>
-      <c r="BC2" s="55">
+      <c r="BC2" s="18">
         <v>43195</v>
       </c>
-      <c r="BD2" s="51">
+      <c r="BD2" s="20">
         <v>43198</v>
       </c>
-      <c r="BE2" s="51">
+      <c r="BE2" s="20">
         <v>43199</v>
       </c>
-      <c r="BF2" s="51">
+      <c r="BF2" s="20">
         <v>43200</v>
       </c>
-      <c r="BG2" s="51">
+      <c r="BG2" s="20">
         <v>43201</v>
       </c>
-      <c r="BH2" s="51">
+      <c r="BH2" s="20">
         <v>43202</v>
       </c>
-      <c r="BI2" s="55">
+      <c r="BI2" s="18">
         <v>43205</v>
       </c>
-      <c r="BJ2" s="55">
+      <c r="BJ2" s="18">
         <v>43206</v>
       </c>
-      <c r="BK2" s="55">
+      <c r="BK2" s="18">
         <v>43207</v>
       </c>
-      <c r="BL2" s="55">
+      <c r="BL2" s="18">
         <v>43208</v>
       </c>
-      <c r="BM2" s="55">
+      <c r="BM2" s="18">
         <v>43209</v>
       </c>
-      <c r="BN2" s="51">
+      <c r="BN2" s="20">
         <v>43212</v>
       </c>
-      <c r="BO2" s="51">
+      <c r="BO2" s="20">
         <v>43213</v>
       </c>
-      <c r="BP2" s="51">
+      <c r="BP2" s="20">
         <v>43214</v>
       </c>
-      <c r="BQ2" s="38">
+      <c r="BQ2" s="21">
         <v>43215</v>
       </c>
       <c r="BR2" s="20">
@@ -2193,9 +2212,10 @@
       <c r="AE3" s="24"/>
       <c r="AF3" s="24"/>
       <c r="AG3" s="24"/>
-      <c r="AO3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="BQ3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="26"/>
+      <c r="BQ3" s="25"/>
       <c r="BU3" s="24"/>
       <c r="CK3" s="25"/>
       <c r="CL3" s="26"/>
@@ -2211,9 +2231,10 @@
       <c r="AE4" s="24"/>
       <c r="AF4" s="24"/>
       <c r="AG4" s="24"/>
-      <c r="AO4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="BQ4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="26"/>
+      <c r="BQ4" s="25"/>
       <c r="BU4" s="24"/>
       <c r="CK4" s="25"/>
       <c r="CL4" s="26"/>
@@ -2232,9 +2253,10 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="24"/>
       <c r="AG5" s="24"/>
-      <c r="AO5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="BQ5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="26"/>
+      <c r="BQ5" s="25"/>
       <c r="BU5" s="24"/>
       <c r="CK5" s="25"/>
       <c r="CL5" s="26"/>
@@ -2253,9 +2275,10 @@
       <c r="AE6" s="24"/>
       <c r="AF6" s="24"/>
       <c r="AG6" s="24"/>
-      <c r="AO6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="BQ6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="26"/>
+      <c r="BQ6" s="25"/>
       <c r="BU6" s="24"/>
       <c r="CK6" s="25"/>
       <c r="CL6" s="26"/>
@@ -2274,9 +2297,10 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
       <c r="AG7" s="24"/>
-      <c r="AO7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="BQ7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="26"/>
+      <c r="BQ7" s="25"/>
       <c r="BU7" s="24"/>
       <c r="CK7" s="25"/>
       <c r="CL7" s="26"/>
@@ -2295,9 +2319,10 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
       <c r="AG8" s="24"/>
-      <c r="AO8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="BQ8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="26"/>
+      <c r="BQ8" s="25"/>
       <c r="BU8" s="24"/>
       <c r="CK8" s="25"/>
       <c r="CL8" s="26"/>
@@ -2316,9 +2341,10 @@
       <c r="AE9" s="24"/>
       <c r="AF9" s="24"/>
       <c r="AG9" s="24"/>
-      <c r="AO9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="BQ9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="26"/>
+      <c r="BQ9" s="25"/>
       <c r="BU9" s="24"/>
       <c r="CK9" s="25"/>
       <c r="CL9" s="26"/>
@@ -2337,9 +2363,10 @@
       <c r="AE10" s="24"/>
       <c r="AF10" s="24"/>
       <c r="AG10" s="24"/>
-      <c r="AO10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="BQ10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="26"/>
+      <c r="BQ10" s="25"/>
       <c r="BU10" s="24"/>
       <c r="CK10" s="25"/>
       <c r="CL10" s="26"/>
@@ -2357,9 +2384,10 @@
       <c r="AE11" s="24"/>
       <c r="AF11" s="24"/>
       <c r="AG11" s="24"/>
-      <c r="AO11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="BQ11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="26"/>
+      <c r="BQ11" s="25"/>
       <c r="BU11" s="24"/>
       <c r="CK11" s="25"/>
       <c r="CL11" s="26"/>
@@ -2376,9 +2404,10 @@
       <c r="AE12" s="24"/>
       <c r="AF12" s="24"/>
       <c r="AG12" s="24"/>
-      <c r="AO12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="BQ12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="26"/>
+      <c r="BQ12" s="25"/>
       <c r="BU12" s="24"/>
       <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
@@ -2395,9 +2424,10 @@
       <c r="AE13" s="24"/>
       <c r="AF13" s="24"/>
       <c r="AG13" s="24"/>
-      <c r="AO13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="BQ13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="26"/>
+      <c r="BQ13" s="25"/>
       <c r="BU13" s="24"/>
       <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
@@ -2415,9 +2445,10 @@
       <c r="AE14" s="24"/>
       <c r="AF14" s="24"/>
       <c r="AG14" s="24"/>
-      <c r="AO14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="BQ14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="26"/>
+      <c r="BQ14" s="25"/>
       <c r="BU14" s="24"/>
       <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
@@ -2438,9 +2469,10 @@
       <c r="AE15" s="34"/>
       <c r="AF15" s="34"/>
       <c r="AG15" s="34"/>
-      <c r="AO15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="BQ15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="32"/>
+      <c r="BQ15" s="39"/>
       <c r="BU15" s="34"/>
       <c r="CK15" s="39"/>
       <c r="CL15" s="32"/>
@@ -2456,17 +2488,10 @@
       <c r="AE16" s="47"/>
       <c r="AF16" s="47"/>
       <c r="AG16" s="47"/>
-      <c r="AO16" s="29"/>
-      <c r="AT16" s="29"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BQ16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="29"/>
+      <c r="BQ16" s="49"/>
       <c r="BU16" s="47"/>
       <c r="CK16" s="49"/>
       <c r="CL16" s="29"/>
@@ -2482,9 +2507,10 @@
       <c r="AE17" s="24"/>
       <c r="AF17" s="24"/>
       <c r="AG17" s="24"/>
-      <c r="AO17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="BQ17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="26"/>
+      <c r="BQ17" s="25"/>
       <c r="BU17" s="24"/>
       <c r="CK17" s="25"/>
       <c r="CL17" s="26"/>
@@ -2500,9 +2526,10 @@
       <c r="AE18" s="24"/>
       <c r="AF18" s="24"/>
       <c r="AG18" s="24"/>
-      <c r="AO18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="BQ18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="26"/>
+      <c r="BQ18" s="25"/>
       <c r="BU18" s="24"/>
       <c r="CK18" s="25"/>
       <c r="CL18" s="26"/>
@@ -2518,9 +2545,10 @@
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="24"/>
-      <c r="AO19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="BQ19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="26"/>
+      <c r="BQ19" s="25"/>
       <c r="BU19" s="24"/>
       <c r="CK19" s="25"/>
       <c r="CL19" s="26"/>
@@ -2534,15 +2562,16 @@
       <c r="E20" s="24"/>
       <c r="R20" s="26"/>
       <c r="S20" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T20" s="40"/>
       <c r="AE20" s="24"/>
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
-      <c r="AO20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="BQ20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="26"/>
+      <c r="BQ20" s="25"/>
       <c r="BU20" s="24"/>
       <c r="CK20" s="25"/>
       <c r="CL20" s="26"/>
@@ -2560,9 +2589,10 @@
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="24"/>
-      <c r="AO21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="BQ21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="26"/>
+      <c r="BQ21" s="25"/>
       <c r="BU21" s="24"/>
       <c r="CK21" s="25"/>
       <c r="CL21" s="26"/>
@@ -2579,9 +2609,10 @@
       <c r="AE22" s="24"/>
       <c r="AF22" s="24"/>
       <c r="AG22" s="24"/>
-      <c r="AO22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="BQ22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="26"/>
+      <c r="BQ22" s="25"/>
       <c r="BU22" s="24"/>
       <c r="CK22" s="25"/>
       <c r="CL22" s="26"/>
@@ -2597,9 +2628,10 @@
       <c r="AE23" s="24"/>
       <c r="AF23" s="24"/>
       <c r="AG23" s="24"/>
-      <c r="AO23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="BQ23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="26"/>
+      <c r="BQ23" s="25"/>
       <c r="BU23" s="24"/>
       <c r="CK23" s="25"/>
       <c r="CL23" s="26"/>
@@ -2620,9 +2652,10 @@
       <c r="AE24" s="24"/>
       <c r="AF24" s="24"/>
       <c r="AG24" s="24"/>
-      <c r="AO24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="BQ24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="26"/>
+      <c r="BQ24" s="25"/>
       <c r="BU24" s="24"/>
       <c r="CK24" s="25"/>
       <c r="CL24" s="26"/>
@@ -2642,9 +2675,10 @@
       <c r="AE25" s="24"/>
       <c r="AF25" s="24"/>
       <c r="AG25" s="24"/>
-      <c r="AO25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="BQ25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="26"/>
+      <c r="BQ25" s="25"/>
       <c r="BU25" s="24"/>
       <c r="CK25" s="25"/>
       <c r="CL25" s="26"/>
@@ -2664,9 +2698,10 @@
       <c r="AE26" s="24"/>
       <c r="AF26" s="24"/>
       <c r="AG26" s="24"/>
-      <c r="AO26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="BQ26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="26"/>
+      <c r="BQ26" s="25"/>
       <c r="BU26" s="24"/>
       <c r="CK26" s="25"/>
       <c r="CL26" s="26"/>
@@ -2686,11 +2721,12 @@
       <c r="AE27" s="24"/>
       <c r="AF27" s="24"/>
       <c r="AG27" s="24"/>
-      <c r="AO27" s="26"/>
-      <c r="AT27" s="26" t="s">
+      <c r="AN27" s="26"/>
+      <c r="AT27" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="BQ27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="BQ27" s="25"/>
       <c r="BU27" s="24"/>
       <c r="CK27" s="25"/>
       <c r="CL27" s="26"/>
@@ -2736,14 +2772,14 @@
       <c r="AK28" s="43"/>
       <c r="AL28" s="43"/>
       <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="43"/>
       <c r="AP28" s="43"/>
       <c r="AQ28" s="43"/>
       <c r="AR28" s="43"/>
       <c r="AS28" s="43"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="43"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="50"/>
       <c r="AV28" s="43"/>
       <c r="AW28" s="43"/>
       <c r="AX28" s="43"/>
@@ -2765,11 +2801,11 @@
       <c r="BN28" s="43"/>
       <c r="BO28" s="43"/>
       <c r="BP28" s="43"/>
-      <c r="BQ28" s="50"/>
+      <c r="BQ28" s="46"/>
       <c r="BR28" s="43"/>
       <c r="BS28" s="43"/>
       <c r="BT28" s="43"/>
-      <c r="BU28" s="64"/>
+      <c r="BU28" s="62"/>
       <c r="BV28" s="43"/>
       <c r="BW28" s="43"/>
       <c r="BX28" s="43"/>
@@ -19093,9 +19129,10 @@
       <c r="AE29" s="24"/>
       <c r="AF29" s="24"/>
       <c r="AG29" s="24"/>
-      <c r="AO29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="BQ29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="26"/>
+      <c r="BQ29" s="25"/>
       <c r="BU29" s="24"/>
       <c r="CK29" s="25"/>
       <c r="CL29" s="26"/>
@@ -19112,9 +19149,10 @@
       <c r="AE30" s="24"/>
       <c r="AF30" s="24"/>
       <c r="AG30" s="24"/>
-      <c r="AO30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="BQ30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="26"/>
+      <c r="BQ30" s="25"/>
       <c r="BU30" s="24"/>
       <c r="CK30" s="25"/>
       <c r="CL30" s="26"/>
@@ -19130,9 +19168,10 @@
       <c r="AE31" s="24"/>
       <c r="AF31" s="24"/>
       <c r="AG31" s="24"/>
-      <c r="AO31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="BQ31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="26"/>
+      <c r="BQ31" s="25"/>
       <c r="BU31" s="24"/>
       <c r="CK31" s="25"/>
       <c r="CL31" s="26"/>
@@ -19149,9 +19188,10 @@
       <c r="AE32" s="24"/>
       <c r="AF32" s="24"/>
       <c r="AG32" s="24"/>
-      <c r="AO32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="BQ32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="26"/>
+      <c r="BQ32" s="25"/>
       <c r="BU32" s="24"/>
       <c r="CK32" s="25"/>
       <c r="CL32" s="26"/>
@@ -19168,9 +19208,10 @@
       <c r="AE33" s="24"/>
       <c r="AF33" s="24"/>
       <c r="AG33" s="24"/>
-      <c r="AO33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="BQ33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="26"/>
+      <c r="BQ33" s="25"/>
       <c r="BU33" s="24"/>
       <c r="CK33" s="25"/>
       <c r="CL33" s="26"/>
@@ -19189,9 +19230,10 @@
       <c r="AE34" s="24"/>
       <c r="AF34" s="24"/>
       <c r="AG34" s="24"/>
-      <c r="AO34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="BQ34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="26"/>
+      <c r="BQ34" s="25"/>
       <c r="BU34" s="24"/>
       <c r="CK34" s="25"/>
       <c r="CL34" s="26"/>
@@ -19208,9 +19250,10 @@
       <c r="AE35" s="24"/>
       <c r="AF35" s="24"/>
       <c r="AG35" s="24"/>
-      <c r="AO35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="BQ35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AT35" s="25"/>
+      <c r="AU35" s="26"/>
+      <c r="BQ35" s="25"/>
       <c r="BU35" s="24"/>
       <c r="CK35" s="25"/>
       <c r="CL35" s="26"/>
@@ -19229,9 +19272,10 @@
       <c r="AE36" s="24"/>
       <c r="AF36" s="24"/>
       <c r="AG36" s="24"/>
-      <c r="AO36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="BQ36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AT36" s="25"/>
+      <c r="AU36" s="26"/>
+      <c r="BQ36" s="25"/>
       <c r="BU36" s="24"/>
       <c r="CK36" s="25"/>
       <c r="CL36" s="26"/>
@@ -19248,9 +19292,10 @@
       <c r="AE37" s="24"/>
       <c r="AF37" s="24"/>
       <c r="AG37" s="24"/>
-      <c r="AO37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="BQ37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AT37" s="25"/>
+      <c r="AU37" s="26"/>
+      <c r="BQ37" s="25"/>
       <c r="BU37" s="24"/>
       <c r="CK37" s="25"/>
       <c r="CL37" s="26"/>
@@ -19267,9 +19312,10 @@
       <c r="AE38" s="24"/>
       <c r="AF38" s="24"/>
       <c r="AG38" s="24"/>
-      <c r="AO38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="BQ38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="26"/>
+      <c r="BQ38" s="25"/>
       <c r="BU38" s="24"/>
       <c r="CK38" s="25"/>
       <c r="CL38" s="26"/>
@@ -19286,9 +19332,10 @@
       <c r="AE39" s="24"/>
       <c r="AF39" s="24"/>
       <c r="AG39" s="24"/>
-      <c r="AO39" s="26"/>
-      <c r="AT39" s="26"/>
-      <c r="BQ39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="26"/>
+      <c r="BQ39" s="25"/>
       <c r="BU39" s="24"/>
       <c r="CK39" s="25"/>
       <c r="CL39" s="26"/>
@@ -19305,9 +19352,10 @@
       <c r="AE40" s="24"/>
       <c r="AF40" s="24"/>
       <c r="AG40" s="24"/>
-      <c r="AO40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="BQ40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AT40" s="25"/>
+      <c r="AU40" s="26"/>
+      <c r="BQ40" s="25"/>
       <c r="BU40" s="24"/>
       <c r="CK40" s="25"/>
       <c r="CL40" s="26"/>
@@ -19325,9 +19373,10 @@
       <c r="AE41" s="24"/>
       <c r="AF41" s="24"/>
       <c r="AG41" s="24"/>
-      <c r="AO41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="BQ41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AT41" s="25"/>
+      <c r="AU41" s="26"/>
+      <c r="BQ41" s="25"/>
       <c r="BU41" s="24"/>
       <c r="CK41" s="25"/>
       <c r="CL41" s="26"/>
@@ -19345,9 +19394,10 @@
       <c r="AE42" s="24"/>
       <c r="AF42" s="24"/>
       <c r="AG42" s="24"/>
-      <c r="AO42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="BQ42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AT42" s="25"/>
+      <c r="AU42" s="26"/>
+      <c r="BQ42" s="25"/>
       <c r="BU42" s="24"/>
       <c r="CK42" s="25"/>
       <c r="CL42" s="26"/>
@@ -19367,9 +19417,10 @@
       <c r="AE43" s="24"/>
       <c r="AF43" s="24"/>
       <c r="AG43" s="24"/>
-      <c r="AO43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="BQ43" s="26"/>
+      <c r="AN43" s="26"/>
+      <c r="AT43" s="25"/>
+      <c r="AU43" s="26"/>
+      <c r="BQ43" s="25"/>
       <c r="BU43" s="24"/>
       <c r="CK43" s="25"/>
       <c r="CL43" s="26"/>
@@ -19393,9 +19444,10 @@
       <c r="AE44" s="24"/>
       <c r="AF44" s="24"/>
       <c r="AG44" s="24"/>
-      <c r="AO44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="BQ44" s="26"/>
+      <c r="AN44" s="26"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="26"/>
+      <c r="BQ44" s="25"/>
       <c r="BU44" s="24"/>
       <c r="CK44" s="25"/>
       <c r="CL44" s="26"/>
@@ -19412,9 +19464,10 @@
       <c r="AE45" s="24"/>
       <c r="AF45" s="24"/>
       <c r="AG45" s="24"/>
-      <c r="AO45" s="26"/>
-      <c r="AT45" s="26"/>
-      <c r="BQ45" s="26"/>
+      <c r="AN45" s="26"/>
+      <c r="AT45" s="25"/>
+      <c r="AU45" s="26"/>
+      <c r="BQ45" s="25"/>
       <c r="BU45" s="24"/>
       <c r="CK45" s="25"/>
       <c r="CL45" s="26"/>
@@ -19431,77 +19484,77 @@
       <c r="AE46" s="24"/>
       <c r="AF46" s="24"/>
       <c r="AG46" s="24"/>
-      <c r="AO46" s="26"/>
-      <c r="AT46" s="26"/>
+      <c r="AN46" s="26"/>
+      <c r="AT46" s="25"/>
+      <c r="AU46" s="26"/>
       <c r="AZ46" s="40"/>
       <c r="BA46" s="40"/>
       <c r="BB46" s="40"/>
       <c r="BC46" s="40"/>
-      <c r="BQ46" s="26"/>
+      <c r="BQ46" s="25"/>
       <c r="BU46" s="24"/>
       <c r="CK46" s="25"/>
       <c r="CL46" s="26"/>
       <c r="DB46" s="25"/>
     </row>
-    <row r="47" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
+    <row r="47" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="E47" s="24"/>
-      <c r="R47" s="26"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27">
+      <c r="B47" s="32"/>
+      <c r="E47" s="34"/>
+      <c r="R47" s="32"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35">
         <v>19</v>
       </c>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="54"/>
-      <c r="AP47" s="40"/>
-      <c r="AQ47" s="40"/>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="40"/>
-      <c r="AT47" s="54"/>
-      <c r="AU47" s="40"/>
-      <c r="AV47" s="40"/>
-      <c r="AZ47" s="40"/>
-      <c r="BA47" s="33"/>
-      <c r="BB47" s="40"/>
-      <c r="BC47" s="40"/>
-      <c r="BQ47" s="26"/>
-      <c r="BU47" s="24"/>
-      <c r="CK47" s="25"/>
-      <c r="CL47" s="26"/>
-      <c r="DB47" s="25"/>
-    </row>
-    <row r="48" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="68"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="68"/>
+      <c r="AR47" s="68"/>
+      <c r="AS47" s="68"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="69"/>
+      <c r="AV47" s="68"/>
+      <c r="AZ47" s="68"/>
+      <c r="BB47" s="68"/>
+      <c r="BC47" s="68"/>
+      <c r="BQ47" s="39"/>
+      <c r="BU47" s="34"/>
+      <c r="CK47" s="39"/>
+      <c r="CL47" s="32"/>
+      <c r="DB47" s="39"/>
+    </row>
+    <row r="48" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="E48" s="47"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="29"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AN48" s="53"/>
-      <c r="AO48" s="29"/>
-      <c r="AT48" s="29"/>
+      <c r="B48" s="26"/>
+      <c r="E48" s="24"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="26"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AN48" s="22"/>
+      <c r="AT48" s="25"/>
+      <c r="AU48" s="26"/>
       <c r="BA48" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="BQ48" s="29"/>
-      <c r="BU48" s="47"/>
-      <c r="CK48" s="49"/>
-      <c r="CL48" s="29"/>
-      <c r="DB48" s="49"/>
+      <c r="BQ48" s="25"/>
+      <c r="BU48" s="24"/>
+      <c r="CK48" s="25"/>
+      <c r="CL48" s="26"/>
+      <c r="DB48" s="25"/>
     </row>
     <row r="49" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -19514,9 +19567,11 @@
       <c r="AE49" s="24"/>
       <c r="AF49" s="24"/>
       <c r="AG49" s="24"/>
-      <c r="AO49" s="22"/>
-      <c r="AT49" s="26"/>
-      <c r="BQ49" s="26"/>
+      <c r="AN49" s="26"/>
+      <c r="AO49" s="27"/>
+      <c r="AT49" s="25"/>
+      <c r="AU49" s="26"/>
+      <c r="BQ49" s="25"/>
       <c r="BU49" s="24"/>
       <c r="CK49" s="25"/>
       <c r="CL49" s="26"/>
@@ -19533,13 +19588,14 @@
       <c r="AE50" s="24"/>
       <c r="AF50" s="24"/>
       <c r="AG50" s="24"/>
-      <c r="AO50" s="26"/>
+      <c r="AN50" s="26"/>
       <c r="AP50" s="27"/>
       <c r="AQ50" s="27"/>
       <c r="AR50" s="41"/>
       <c r="AS50" s="41"/>
-      <c r="AT50" s="26"/>
-      <c r="BQ50" s="26"/>
+      <c r="AT50" s="25"/>
+      <c r="AU50" s="26"/>
+      <c r="BQ50" s="25"/>
       <c r="BU50" s="24"/>
       <c r="CK50" s="25"/>
       <c r="CL50" s="26"/>
@@ -19556,20 +19612,22 @@
       <c r="AE51" s="24"/>
       <c r="AF51" s="24"/>
       <c r="AG51" s="24"/>
-      <c r="AO51" s="54"/>
+      <c r="AN51" s="26"/>
+      <c r="AO51" s="40"/>
       <c r="AP51" s="40"/>
       <c r="AQ51" s="40"/>
       <c r="AR51" s="27"/>
       <c r="AS51" s="27"/>
-      <c r="AT51" s="26"/>
-      <c r="BQ51" s="26"/>
+      <c r="AT51" s="25"/>
+      <c r="AU51" s="26"/>
+      <c r="BQ51" s="25"/>
       <c r="BU51" s="24"/>
       <c r="CK51" s="25"/>
       <c r="CL51" s="26"/>
       <c r="DB51" s="25"/>
     </row>
     <row r="52" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="26"/>
@@ -19579,15 +19637,17 @@
       <c r="AE52" s="24"/>
       <c r="AF52" s="24"/>
       <c r="AG52" s="24"/>
-      <c r="AO52" s="22"/>
+      <c r="AN52" s="26"/>
+      <c r="AO52" s="27"/>
       <c r="AP52" s="27"/>
       <c r="AQ52" s="27"/>
       <c r="AR52" s="27"/>
-      <c r="AS52" s="27">
-        <v>6</v>
-      </c>
-      <c r="AT52" s="26"/>
-      <c r="BQ52" s="26"/>
+      <c r="AS52" s="27"/>
+      <c r="AT52" s="28">
+        <v>7</v>
+      </c>
+      <c r="AU52" s="26"/>
+      <c r="BQ52" s="25"/>
       <c r="BU52" s="24"/>
       <c r="CK52" s="25"/>
       <c r="CL52" s="26"/>
@@ -19604,15 +19664,16 @@
       <c r="AE53" s="47"/>
       <c r="AF53" s="47"/>
       <c r="AG53" s="47"/>
-      <c r="AO53" s="29"/>
-      <c r="AT53" s="48" t="s">
+      <c r="AN53" s="29"/>
+      <c r="AT53" s="49"/>
+      <c r="AU53" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AU53" s="53"/>
-      <c r="BA53" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ53" s="29"/>
+      <c r="AV53" s="52"/>
+      <c r="BB53" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ53" s="49"/>
       <c r="BU53" s="47"/>
       <c r="CK53" s="49"/>
       <c r="CL53" s="29"/>
@@ -19629,13 +19690,16 @@
       <c r="AE54" s="24"/>
       <c r="AF54" s="24"/>
       <c r="AG54" s="24"/>
-      <c r="AO54" s="26"/>
-      <c r="AT54" s="26"/>
-      <c r="AV54" s="27"/>
+      <c r="AN54" s="26"/>
+      <c r="AT54" s="25"/>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="AW54" s="27"/>
-      <c r="AX54" s="41"/>
       <c r="AY54" s="41"/>
-      <c r="BQ54" s="26"/>
+      <c r="AZ54" s="41"/>
+      <c r="BQ54" s="25"/>
       <c r="BU54" s="24"/>
       <c r="CK54" s="25"/>
       <c r="CL54" s="26"/>
@@ -19652,11 +19716,14 @@
       <c r="AE55" s="24"/>
       <c r="AF55" s="24"/>
       <c r="AG55" s="24"/>
-      <c r="AO55" s="26"/>
-      <c r="AT55" s="26"/>
+      <c r="AN55" s="26"/>
+      <c r="AT55" s="25"/>
+      <c r="AU55" s="26"/>
+      <c r="AW55" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="AX55" s="27"/>
-      <c r="AY55" s="27"/>
-      <c r="BQ55" s="26"/>
+      <c r="BQ55" s="25"/>
       <c r="BU55" s="24"/>
       <c r="CK55" s="25"/>
       <c r="CL55" s="26"/>
@@ -19673,16 +19740,19 @@
       <c r="AE56" s="24"/>
       <c r="AF56" s="24"/>
       <c r="AG56" s="24"/>
-      <c r="AO56" s="26"/>
-      <c r="AT56" s="26"/>
+      <c r="AN56" s="26"/>
+      <c r="AT56" s="25"/>
+      <c r="AU56" s="26"/>
+      <c r="AY56" s="27"/>
       <c r="AZ56" s="27"/>
       <c r="BA56" s="27"/>
-      <c r="BB56" s="41"/>
+      <c r="BB56" s="27"/>
       <c r="BC56" s="41"/>
       <c r="BD56" s="41"/>
       <c r="BE56" s="41"/>
       <c r="BF56" s="41"/>
-      <c r="BQ56" s="26"/>
+      <c r="BG56" s="41"/>
+      <c r="BQ56" s="25"/>
       <c r="BU56" s="24"/>
       <c r="CK56" s="25"/>
       <c r="CL56" s="26"/>
@@ -19699,10 +19769,18 @@
       <c r="AE57" s="24"/>
       <c r="AF57" s="24"/>
       <c r="AG57" s="24"/>
-      <c r="AO57" s="26"/>
-      <c r="AT57" s="26"/>
-      <c r="BB57" s="27"/>
-      <c r="BQ57" s="26"/>
+      <c r="AN57" s="26"/>
+      <c r="AT57" s="25"/>
+      <c r="AU57" s="26"/>
+      <c r="BC57" s="41"/>
+      <c r="BD57" s="41"/>
+      <c r="BE57" s="41"/>
+      <c r="BF57" s="41"/>
+      <c r="BG57" s="41"/>
+      <c r="BH57" s="41"/>
+      <c r="BI57" s="41"/>
+      <c r="BJ57" s="41"/>
+      <c r="BQ57" s="25"/>
       <c r="BU57" s="24"/>
       <c r="CK57" s="25"/>
       <c r="CL57" s="26"/>
@@ -19719,10 +19797,18 @@
       <c r="AE58" s="24"/>
       <c r="AF58" s="24"/>
       <c r="AG58" s="24"/>
-      <c r="AO58" s="26"/>
-      <c r="AT58" s="26"/>
-      <c r="BB58" s="27"/>
-      <c r="BQ58" s="26"/>
+      <c r="AN58" s="26"/>
+      <c r="AT58" s="25"/>
+      <c r="AU58" s="26"/>
+      <c r="BC58" s="41"/>
+      <c r="BD58" s="41"/>
+      <c r="BE58" s="41"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="41"/>
+      <c r="BH58" s="41"/>
+      <c r="BI58" s="41"/>
+      <c r="BJ58" s="41"/>
+      <c r="BQ58" s="25"/>
       <c r="BU58" s="24"/>
       <c r="CK58" s="25"/>
       <c r="CL58" s="26"/>
@@ -19739,10 +19825,18 @@
       <c r="AE59" s="24"/>
       <c r="AF59" s="24"/>
       <c r="AG59" s="24"/>
-      <c r="AO59" s="26"/>
-      <c r="AT59" s="26"/>
-      <c r="BC59" s="27"/>
-      <c r="BQ59" s="26"/>
+      <c r="AN59" s="26"/>
+      <c r="AT59" s="25"/>
+      <c r="AU59" s="26"/>
+      <c r="BC59" s="41"/>
+      <c r="BD59" s="27"/>
+      <c r="BE59" s="27"/>
+      <c r="BF59" s="41"/>
+      <c r="BG59" s="41"/>
+      <c r="BH59" s="41"/>
+      <c r="BI59" s="41"/>
+      <c r="BJ59" s="41"/>
+      <c r="BQ59" s="25"/>
       <c r="BU59" s="24"/>
       <c r="CK59" s="25"/>
       <c r="CL59" s="26"/>
@@ -19759,10 +19853,17 @@
       <c r="AE60" s="24"/>
       <c r="AF60" s="24"/>
       <c r="AG60" s="24"/>
-      <c r="AO60" s="26"/>
-      <c r="AT60" s="26"/>
-      <c r="BD60" s="27"/>
-      <c r="BQ60" s="26"/>
+      <c r="AN60" s="26"/>
+      <c r="AT60" s="25"/>
+      <c r="AU60" s="26"/>
+      <c r="BC60" s="41"/>
+      <c r="BD60" s="41"/>
+      <c r="BE60" s="41"/>
+      <c r="BG60" s="27"/>
+      <c r="BH60" s="41"/>
+      <c r="BI60" s="41"/>
+      <c r="BJ60" s="41"/>
+      <c r="BQ60" s="25"/>
       <c r="BU60" s="24"/>
       <c r="CK60" s="25"/>
       <c r="CL60" s="26"/>
@@ -19779,10 +19880,17 @@
       <c r="AE61" s="24"/>
       <c r="AF61" s="24"/>
       <c r="AG61" s="24"/>
-      <c r="AO61" s="26"/>
-      <c r="AT61" s="26"/>
-      <c r="BD61" s="27"/>
-      <c r="BQ61" s="26"/>
+      <c r="AN61" s="26"/>
+      <c r="AT61" s="25"/>
+      <c r="AU61" s="26"/>
+      <c r="BC61" s="41"/>
+      <c r="BD61" s="41"/>
+      <c r="BE61" s="41"/>
+      <c r="BG61" s="41"/>
+      <c r="BH61" s="41"/>
+      <c r="BI61" s="41"/>
+      <c r="BJ61" s="41"/>
+      <c r="BQ61" s="25"/>
       <c r="BU61" s="24"/>
       <c r="CK61" s="25"/>
       <c r="CL61" s="26"/>
@@ -19799,10 +19907,17 @@
       <c r="AE62" s="24"/>
       <c r="AF62" s="24"/>
       <c r="AG62" s="24"/>
-      <c r="AO62" s="26"/>
-      <c r="AT62" s="26"/>
-      <c r="BE62" s="27"/>
-      <c r="BQ62" s="26"/>
+      <c r="AN62" s="26"/>
+      <c r="AT62" s="25"/>
+      <c r="AU62" s="26"/>
+      <c r="BC62" s="41"/>
+      <c r="BD62" s="41"/>
+      <c r="BE62" s="41"/>
+      <c r="BG62" s="41"/>
+      <c r="BH62" s="27"/>
+      <c r="BI62" s="41"/>
+      <c r="BJ62" s="41"/>
+      <c r="BQ62" s="25"/>
       <c r="BU62" s="24"/>
       <c r="CK62" s="25"/>
       <c r="CL62" s="26"/>
@@ -19819,10 +19934,18 @@
       <c r="AE63" s="24"/>
       <c r="AF63" s="24"/>
       <c r="AG63" s="24"/>
-      <c r="AO63" s="26"/>
-      <c r="AT63" s="26"/>
-      <c r="BE63" s="27"/>
-      <c r="BQ63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AT63" s="25"/>
+      <c r="AU63" s="26"/>
+      <c r="BC63" s="41"/>
+      <c r="BD63" s="41"/>
+      <c r="BE63" s="41"/>
+      <c r="BF63" s="41"/>
+      <c r="BG63" s="41"/>
+      <c r="BH63" s="41"/>
+      <c r="BI63" s="27"/>
+      <c r="BJ63" s="41"/>
+      <c r="BQ63" s="25"/>
       <c r="BU63" s="24"/>
       <c r="CK63" s="25"/>
       <c r="CL63" s="26"/>
@@ -19839,10 +19962,18 @@
       <c r="AE64" s="24"/>
       <c r="AF64" s="24"/>
       <c r="AG64" s="24"/>
-      <c r="AO64" s="26"/>
-      <c r="AT64" s="26"/>
-      <c r="BF64" s="27"/>
-      <c r="BQ64" s="26"/>
+      <c r="AN64" s="26"/>
+      <c r="AT64" s="25"/>
+      <c r="AU64" s="26"/>
+      <c r="BC64" s="41"/>
+      <c r="BD64" s="41"/>
+      <c r="BE64" s="41"/>
+      <c r="BF64" s="41"/>
+      <c r="BG64" s="41"/>
+      <c r="BH64" s="41"/>
+      <c r="BI64" s="41"/>
+      <c r="BJ64" s="27"/>
+      <c r="BQ64" s="25"/>
       <c r="BU64" s="24"/>
       <c r="CK64" s="25"/>
       <c r="CL64" s="26"/>
@@ -19859,10 +19990,18 @@
       <c r="AE65" s="24"/>
       <c r="AF65" s="24"/>
       <c r="AG65" s="24"/>
-      <c r="AO65" s="26"/>
-      <c r="AT65" s="26"/>
-      <c r="BF65" s="27"/>
-      <c r="BQ65" s="26"/>
+      <c r="AN65" s="26"/>
+      <c r="AT65" s="25"/>
+      <c r="AU65" s="26"/>
+      <c r="BC65" s="41"/>
+      <c r="BD65" s="41"/>
+      <c r="BE65" s="41"/>
+      <c r="BF65" s="41"/>
+      <c r="BG65" s="41"/>
+      <c r="BH65" s="41"/>
+      <c r="BI65" s="41"/>
+      <c r="BJ65" s="27"/>
+      <c r="BQ65" s="25"/>
       <c r="BU65" s="24"/>
       <c r="CK65" s="25"/>
       <c r="CL65" s="26"/>
@@ -19879,10 +20018,18 @@
       <c r="AE66" s="24"/>
       <c r="AF66" s="24"/>
       <c r="AG66" s="24"/>
-      <c r="AO66" s="26"/>
-      <c r="AT66" s="26"/>
-      <c r="BB66" s="27"/>
-      <c r="BQ66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AT66" s="25"/>
+      <c r="AU66" s="26"/>
+      <c r="BC66" s="27"/>
+      <c r="BD66" s="41"/>
+      <c r="BE66" s="41"/>
+      <c r="BF66" s="41"/>
+      <c r="BG66" s="41"/>
+      <c r="BH66" s="41"/>
+      <c r="BI66" s="41"/>
+      <c r="BJ66" s="41"/>
+      <c r="BQ66" s="25"/>
       <c r="BU66" s="24"/>
       <c r="CK66" s="25"/>
       <c r="CL66" s="26"/>
@@ -19899,13 +20046,17 @@
       <c r="AE67" s="24"/>
       <c r="AF67" s="24"/>
       <c r="AG67" s="24"/>
-      <c r="AO67" s="26"/>
-      <c r="AT67" s="26"/>
+      <c r="AN67" s="26"/>
+      <c r="AT67" s="25"/>
+      <c r="AU67" s="26"/>
       <c r="BC67" s="27"/>
-      <c r="BG67" s="27"/>
-      <c r="BH67" s="27"/>
-      <c r="BI67" s="27"/>
-      <c r="BQ67" s="26"/>
+      <c r="BE67" s="41"/>
+      <c r="BF67" s="41"/>
+      <c r="BG67" s="41"/>
+      <c r="BH67" s="41"/>
+      <c r="BI67" s="41"/>
+      <c r="BJ67" s="41"/>
+      <c r="BQ67" s="25"/>
       <c r="BU67" s="24"/>
       <c r="CK67" s="25"/>
       <c r="CL67" s="26"/>
@@ -19922,25 +20073,26 @@
       <c r="AE68" s="34"/>
       <c r="AF68" s="34"/>
       <c r="AG68" s="34"/>
-      <c r="AO68" s="32"/>
-      <c r="AT68" s="32"/>
-      <c r="BJ68" s="35"/>
+      <c r="AN68" s="32"/>
+      <c r="AT68" s="39"/>
+      <c r="AU68" s="32"/>
+      <c r="BJ68" s="75"/>
       <c r="BK68" s="35"/>
       <c r="BL68" s="35"/>
       <c r="BM68" s="35"/>
       <c r="BN68" s="35"/>
       <c r="BO68" s="35"/>
-      <c r="BP68" s="35">
+      <c r="BP68" s="35"/>
+      <c r="BQ68" s="36">
         <v>23</v>
       </c>
-      <c r="BQ68" s="32"/>
       <c r="BU68" s="34"/>
       <c r="CK68" s="39"/>
       <c r="CL68" s="32"/>
       <c r="DB68" s="39"/>
     </row>
     <row r="69" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="29"/>
@@ -19950,16 +20102,18 @@
       <c r="AE69" s="47"/>
       <c r="AF69" s="47"/>
       <c r="AG69" s="47"/>
-      <c r="AO69" s="29"/>
-      <c r="AT69" s="29"/>
-      <c r="BQ69" s="48"/>
+      <c r="AN69" s="29"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="29"/>
+      <c r="BQ69" s="49"/>
+      <c r="BR69" s="52"/>
       <c r="BU69" s="47"/>
       <c r="CK69" s="49"/>
       <c r="CL69" s="29"/>
       <c r="DB69" s="49"/>
     </row>
     <row r="70" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B70" s="26"/>
@@ -19969,16 +20123,18 @@
       <c r="AE70" s="24"/>
       <c r="AF70" s="24"/>
       <c r="AG70" s="24"/>
-      <c r="AO70" s="26"/>
-      <c r="AT70" s="26"/>
-      <c r="BQ70" s="22"/>
+      <c r="AN70" s="26"/>
+      <c r="AT70" s="25"/>
+      <c r="AU70" s="26"/>
+      <c r="BQ70" s="25"/>
+      <c r="BR70" s="27"/>
       <c r="BU70" s="24"/>
       <c r="CK70" s="25"/>
       <c r="CL70" s="26"/>
       <c r="DB70" s="25"/>
     </row>
     <row r="71" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="59" t="s">
         <v>35</v>
       </c>
       <c r="B71" s="26"/>
@@ -19988,18 +20144,19 @@
       <c r="AE71" s="24"/>
       <c r="AF71" s="24"/>
       <c r="AG71" s="24"/>
-      <c r="AO71" s="26"/>
-      <c r="AT71" s="26"/>
-      <c r="BQ71" s="26"/>
-      <c r="BR71" s="27"/>
+      <c r="AN71" s="26"/>
+      <c r="AT71" s="25"/>
+      <c r="AU71" s="26"/>
+      <c r="BQ71" s="25"/>
       <c r="BS71" s="27"/>
+      <c r="BT71" s="27"/>
       <c r="BU71" s="24"/>
       <c r="CK71" s="25"/>
       <c r="CL71" s="26"/>
       <c r="DB71" s="25"/>
     </row>
     <row r="72" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="26"/>
@@ -20009,190 +20166,198 @@
       <c r="AE72" s="24"/>
       <c r="AF72" s="24"/>
       <c r="AG72" s="24"/>
-      <c r="AO72" s="26"/>
-      <c r="AT72" s="26"/>
-      <c r="BQ72" s="26"/>
-      <c r="BS72" s="27"/>
+      <c r="AN72" s="26"/>
+      <c r="AT72" s="25"/>
+      <c r="AU72" s="26"/>
+      <c r="BQ72" s="25"/>
+      <c r="BT72" s="27"/>
       <c r="BU72" s="24"/>
       <c r="CK72" s="25"/>
       <c r="CL72" s="26"/>
       <c r="DB72" s="25"/>
     </row>
-    <row r="73" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
+    <row r="73" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="E73" s="58"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="56"/>
-      <c r="AE73" s="58"/>
-      <c r="AF73" s="58"/>
-      <c r="AG73" s="58"/>
-      <c r="AO73" s="56"/>
-      <c r="AT73" s="56"/>
-      <c r="BQ73" s="56"/>
-      <c r="BT73" s="62"/>
-      <c r="BU73" s="58"/>
-      <c r="CK73" s="59"/>
-      <c r="CL73" s="56"/>
-      <c r="DB73" s="59"/>
-    </row>
-    <row r="74" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56" t="s">
+      <c r="B73" s="54"/>
+      <c r="E73" s="56"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="54"/>
+      <c r="AE73" s="56"/>
+      <c r="AF73" s="56"/>
+      <c r="AG73" s="56"/>
+      <c r="AN73" s="54"/>
+      <c r="AT73" s="57"/>
+      <c r="AU73" s="54"/>
+      <c r="BQ73" s="57"/>
+      <c r="BU73" s="56"/>
+      <c r="BV73" s="60"/>
+      <c r="CK73" s="57"/>
+      <c r="CL73" s="54"/>
+      <c r="DB73" s="57"/>
+    </row>
+    <row r="74" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="E74" s="58"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="56"/>
-      <c r="AE74" s="58"/>
-      <c r="AF74" s="58"/>
-      <c r="AG74" s="58"/>
-      <c r="AO74" s="56"/>
-      <c r="AT74" s="56"/>
-      <c r="BQ74" s="56"/>
-      <c r="BT74" s="63"/>
-      <c r="BU74" s="58"/>
-      <c r="BV74" s="62"/>
-      <c r="CK74" s="59"/>
-      <c r="CL74" s="56"/>
-      <c r="DB74" s="59"/>
-    </row>
-    <row r="75" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="54"/>
+      <c r="E74" s="56"/>
+      <c r="Q74" s="57"/>
+      <c r="R74" s="54"/>
+      <c r="AE74" s="56"/>
+      <c r="AF74" s="56"/>
+      <c r="AG74" s="56"/>
+      <c r="AN74" s="54"/>
+      <c r="AT74" s="57"/>
+      <c r="AU74" s="54"/>
+      <c r="BQ74" s="57"/>
+      <c r="BT74" s="61"/>
+      <c r="BU74" s="56"/>
+      <c r="BW74" s="60"/>
+      <c r="CK74" s="57"/>
+      <c r="CL74" s="54"/>
+      <c r="DB74" s="57"/>
+    </row>
+    <row r="75" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="E75" s="58"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="56"/>
-      <c r="AE75" s="58"/>
-      <c r="AF75" s="58"/>
-      <c r="AG75" s="58"/>
-      <c r="AO75" s="56"/>
-      <c r="AT75" s="56"/>
-      <c r="BQ75" s="56"/>
-      <c r="BT75" s="63"/>
-      <c r="BU75" s="58"/>
-      <c r="BW75" s="62"/>
-      <c r="CK75" s="59"/>
-      <c r="CL75" s="56"/>
-      <c r="DB75" s="59"/>
-    </row>
-    <row r="76" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="54"/>
+      <c r="E75" s="56"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="54"/>
+      <c r="AE75" s="56"/>
+      <c r="AF75" s="56"/>
+      <c r="AG75" s="56"/>
+      <c r="AN75" s="54"/>
+      <c r="AT75" s="57"/>
+      <c r="AU75" s="54"/>
+      <c r="BQ75" s="57"/>
+      <c r="BT75" s="61"/>
+      <c r="BU75" s="56"/>
+      <c r="BX75" s="60"/>
+      <c r="CK75" s="57"/>
+      <c r="CL75" s="54"/>
+      <c r="DB75" s="57"/>
+    </row>
+    <row r="76" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="E76" s="58"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="56"/>
-      <c r="AE76" s="58"/>
-      <c r="AF76" s="58"/>
-      <c r="AG76" s="58"/>
-      <c r="AO76" s="56"/>
-      <c r="AT76" s="56"/>
-      <c r="BQ76" s="56"/>
-      <c r="BT76" s="63"/>
-      <c r="BU76" s="58"/>
-      <c r="BX76" s="62"/>
-      <c r="CK76" s="59"/>
-      <c r="CL76" s="56"/>
-      <c r="DB76" s="59"/>
-    </row>
-    <row r="77" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="54"/>
+      <c r="E76" s="56"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="54"/>
+      <c r="AE76" s="56"/>
+      <c r="AF76" s="56"/>
+      <c r="AG76" s="56"/>
+      <c r="AN76" s="54"/>
+      <c r="AT76" s="57"/>
+      <c r="AU76" s="54"/>
+      <c r="BQ76" s="57"/>
+      <c r="BT76" s="61"/>
+      <c r="BU76" s="56"/>
+      <c r="BY76" s="60"/>
+      <c r="CK76" s="57"/>
+      <c r="CL76" s="54"/>
+      <c r="DB76" s="57"/>
+    </row>
+    <row r="77" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="E77" s="58"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="56"/>
-      <c r="AE77" s="58"/>
-      <c r="AF77" s="58"/>
-      <c r="AG77" s="58"/>
-      <c r="AO77" s="56"/>
-      <c r="AT77" s="56"/>
-      <c r="BQ77" s="56"/>
-      <c r="BT77" s="63"/>
-      <c r="BU77" s="58"/>
-      <c r="BY77" s="62"/>
-      <c r="CK77" s="59"/>
-      <c r="CL77" s="56"/>
-      <c r="DB77" s="59"/>
-    </row>
-    <row r="78" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="54"/>
+      <c r="E77" s="56"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="54"/>
+      <c r="AE77" s="56"/>
+      <c r="AF77" s="56"/>
+      <c r="AG77" s="56"/>
+      <c r="AN77" s="54"/>
+      <c r="AT77" s="57"/>
+      <c r="AU77" s="54"/>
+      <c r="BQ77" s="57"/>
+      <c r="BT77" s="61"/>
+      <c r="BU77" s="56"/>
+      <c r="BZ77" s="60"/>
+      <c r="CK77" s="57"/>
+      <c r="CL77" s="54"/>
+      <c r="DB77" s="57"/>
+    </row>
+    <row r="78" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="E78" s="58"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="56"/>
-      <c r="AE78" s="58"/>
-      <c r="AF78" s="58"/>
-      <c r="AG78" s="58"/>
-      <c r="AO78" s="56"/>
-      <c r="AT78" s="56"/>
-      <c r="BQ78" s="56"/>
-      <c r="BT78" s="63"/>
-      <c r="BU78" s="58"/>
-      <c r="BZ78" s="62"/>
-      <c r="CK78" s="59"/>
-      <c r="CL78" s="56"/>
-      <c r="DB78" s="59"/>
-    </row>
-    <row r="79" spans="1:106" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="54"/>
+      <c r="E78" s="56"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="54"/>
+      <c r="AE78" s="56"/>
+      <c r="AF78" s="56"/>
+      <c r="AG78" s="56"/>
+      <c r="AN78" s="54"/>
+      <c r="AT78" s="57"/>
+      <c r="AU78" s="54"/>
+      <c r="BQ78" s="57"/>
+      <c r="BT78" s="61"/>
+      <c r="BU78" s="56"/>
+      <c r="CA78" s="60"/>
+      <c r="CK78" s="57"/>
+      <c r="CL78" s="54"/>
+      <c r="DB78" s="57"/>
+    </row>
+    <row r="79" spans="1:106" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="E79" s="58"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="56"/>
-      <c r="AE79" s="58"/>
-      <c r="AF79" s="58"/>
-      <c r="AG79" s="58"/>
-      <c r="AO79" s="56"/>
-      <c r="AT79" s="56"/>
-      <c r="BQ79" s="56"/>
-      <c r="BT79" s="63"/>
-      <c r="BU79" s="58"/>
-      <c r="CA79" s="62"/>
-      <c r="CK79" s="59"/>
-      <c r="CL79" s="56"/>
-      <c r="DB79" s="59"/>
-    </row>
-    <row r="80" spans="1:106" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52" t="s">
+      <c r="B79" s="54"/>
+      <c r="E79" s="56"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="54"/>
+      <c r="AE79" s="56"/>
+      <c r="AF79" s="56"/>
+      <c r="AG79" s="56"/>
+      <c r="AN79" s="54"/>
+      <c r="AT79" s="57"/>
+      <c r="AU79" s="54"/>
+      <c r="BQ79" s="57"/>
+      <c r="BT79" s="61"/>
+      <c r="BU79" s="56"/>
+      <c r="CB79" s="60"/>
+      <c r="CK79" s="57"/>
+      <c r="CL79" s="54"/>
+      <c r="DB79" s="57"/>
+    </row>
+    <row r="80" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="E80" s="24"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="26"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AO80" s="26"/>
-      <c r="AT80" s="26"/>
-      <c r="BQ80" s="26"/>
-      <c r="BU80" s="24"/>
-      <c r="CB80" s="27"/>
-      <c r="CC80" s="27"/>
-      <c r="CD80" s="27"/>
-      <c r="CE80" s="27"/>
-      <c r="CF80" s="27"/>
-      <c r="CG80" s="27"/>
-      <c r="CH80" s="27"/>
-      <c r="CI80" s="27"/>
-      <c r="CJ80" s="27"/>
-      <c r="CK80" s="28">
+      <c r="B80" s="32"/>
+      <c r="E80" s="34"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="32"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
+      <c r="AG80" s="34"/>
+      <c r="AN80" s="32"/>
+      <c r="AT80" s="39"/>
+      <c r="AU80" s="32"/>
+      <c r="BQ80" s="39"/>
+      <c r="BU80" s="34"/>
+      <c r="CC80" s="35"/>
+      <c r="CD80" s="35"/>
+      <c r="CE80" s="35"/>
+      <c r="CF80" s="35"/>
+      <c r="CG80" s="35"/>
+      <c r="CH80" s="35"/>
+      <c r="CI80" s="35"/>
+      <c r="CJ80" s="35"/>
+      <c r="CK80" s="36"/>
+      <c r="CL80" s="70">
         <v>20</v>
       </c>
-      <c r="CL80" s="26"/>
-      <c r="DB80" s="25"/>
+      <c r="DB80" s="39"/>
     </row>
     <row r="81" spans="1:106" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
@@ -20205,13 +20370,14 @@
       <c r="AE81" s="47"/>
       <c r="AF81" s="47"/>
       <c r="AG81" s="47"/>
-      <c r="AO81" s="29"/>
-      <c r="AT81" s="29"/>
-      <c r="BQ81" s="29"/>
+      <c r="AN81" s="29"/>
+      <c r="AT81" s="49"/>
+      <c r="AU81" s="29"/>
+      <c r="BQ81" s="49"/>
       <c r="BU81" s="47"/>
       <c r="CK81" s="49"/>
-      <c r="CL81" s="48"/>
-      <c r="CM81" s="53"/>
+      <c r="CM81" s="52"/>
+      <c r="CN81" s="52"/>
       <c r="DB81" s="49"/>
     </row>
     <row r="82" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -20225,13 +20391,13 @@
       <c r="AE82" s="24"/>
       <c r="AF82" s="24"/>
       <c r="AG82" s="24"/>
-      <c r="AO82" s="26"/>
-      <c r="AT82" s="26"/>
-      <c r="BQ82" s="26"/>
+      <c r="AN82" s="26"/>
+      <c r="AT82" s="25"/>
+      <c r="AU82" s="26"/>
+      <c r="BQ82" s="25"/>
       <c r="BU82" s="24"/>
       <c r="CK82" s="25"/>
-      <c r="CL82" s="26"/>
-      <c r="CN82" s="27"/>
+      <c r="CO82" s="27"/>
       <c r="DB82" s="25"/>
     </row>
     <row r="83" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -20245,13 +20411,13 @@
       <c r="AE83" s="24"/>
       <c r="AF83" s="24"/>
       <c r="AG83" s="24"/>
-      <c r="AO83" s="26"/>
-      <c r="AT83" s="26"/>
-      <c r="BQ83" s="26"/>
+      <c r="AN83" s="26"/>
+      <c r="AT83" s="25"/>
+      <c r="AU83" s="26"/>
+      <c r="BQ83" s="25"/>
       <c r="BU83" s="24"/>
       <c r="CK83" s="25"/>
-      <c r="CL83" s="26"/>
-      <c r="CN83" s="27"/>
+      <c r="CO83" s="27"/>
       <c r="DB83" s="25"/>
     </row>
     <row r="84" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -20265,13 +20431,13 @@
       <c r="AE84" s="24"/>
       <c r="AF84" s="24"/>
       <c r="AG84" s="24"/>
-      <c r="AO84" s="26"/>
-      <c r="AT84" s="26"/>
-      <c r="BQ84" s="26"/>
+      <c r="AN84" s="26"/>
+      <c r="AT84" s="25"/>
+      <c r="AU84" s="26"/>
+      <c r="BQ84" s="25"/>
       <c r="BU84" s="24"/>
       <c r="CK84" s="25"/>
-      <c r="CL84" s="26"/>
-      <c r="CN84" s="27"/>
+      <c r="CO84" s="27"/>
       <c r="DB84" s="25"/>
     </row>
     <row r="85" spans="1:106" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -20285,16 +20451,16 @@
       <c r="AE85" s="24"/>
       <c r="AF85" s="24"/>
       <c r="AG85" s="24"/>
-      <c r="AO85" s="26"/>
-      <c r="AT85" s="26"/>
-      <c r="BQ85" s="26"/>
+      <c r="AN85" s="26"/>
+      <c r="AT85" s="25"/>
+      <c r="AU85" s="26"/>
+      <c r="BQ85" s="25"/>
       <c r="BU85" s="24"/>
       <c r="CK85" s="25"/>
-      <c r="CL85" s="26"/>
-      <c r="CO85" s="27"/>
       <c r="CP85" s="27"/>
       <c r="CQ85" s="27"/>
       <c r="CR85" s="27"/>
+      <c r="CS85" s="27"/>
       <c r="DB85" s="25"/>
     </row>
     <row r="86" spans="1:106" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20308,13 +20474,12 @@
       <c r="AE86" s="34"/>
       <c r="AF86" s="34"/>
       <c r="AG86" s="34"/>
-      <c r="AO86" s="32"/>
-      <c r="AT86" s="32"/>
-      <c r="BQ86" s="32"/>
+      <c r="AN86" s="32"/>
+      <c r="AT86" s="39"/>
+      <c r="AU86" s="32"/>
+      <c r="BQ86" s="39"/>
       <c r="BU86" s="34"/>
       <c r="CK86" s="39"/>
-      <c r="CL86" s="32"/>
-      <c r="CS86" s="35"/>
       <c r="CT86" s="35"/>
       <c r="CU86" s="35"/>
       <c r="CV86" s="35"/>
@@ -20324,16 +20489,17 @@
       <c r="CZ86" s="35"/>
       <c r="DA86" s="35"/>
       <c r="DB86" s="36">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="BQ1:CK1"/>
+  <mergeCells count="6">
+    <mergeCell ref="CL1:DB1"/>
     <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="R1:AN1"/>
-    <mergeCell ref="AT1:BP1"/>
+    <mergeCell ref="BR1:CK1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AU1:BQ1"/>
+    <mergeCell ref="R1:AM1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
